--- a/excelDocs/scarletAndViolet151/pokemon_data.xlsx
+++ b/excelDocs/scarletAndViolet151/pokemon_data.xlsx
@@ -664,7 +664,7 @@
         <v>46</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>0.16</v>
@@ -682,20 +682,20 @@
         <v/>
       </c>
       <c r="I2" s="3" t="n">
-        <v>9.890000000000001</v>
+        <v>9.99</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>65.48999999999999</v>
+        <v>65.69</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>232.98</v>
+        <v>233.43</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>6.19</v>
+        <v>6.35</v>
       </c>
       <c r="M2" s="3" t="n"/>
       <c r="N2" s="3" t="n">
-        <v>372.92</v>
+        <v>373.94</v>
       </c>
       <c r="R2" s="3" t="n"/>
       <c r="S2" s="3" t="n"/>
@@ -733,7 +733,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>0.59</v>
@@ -789,7 +789,7 @@
         <v>90</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="E4" s="3" t="inlineStr"/>
       <c r="F4" s="3">
@@ -843,7 +843,7 @@
         <v>248</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>7.01</v>
+        <v>6.63</v>
       </c>
       <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3">
@@ -897,7 +897,7 @@
         <v>225</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>36.5</v>
+        <v>36.92</v>
       </c>
       <c r="E6" s="3" t="inlineStr"/>
       <c r="F6" s="3">
@@ -954,7 +954,7 @@
         <v>0.1</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
       <c r="F7" s="3">
         <f>IF(B7:B215="common", 4, IF(B7:B215="uncommon", 3, IF(B7:B215="rare", 0.792892156862745, 1)))</f>
@@ -1010,7 +1010,7 @@
         <v>0.1</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.95</v>
+        <v>1.02</v>
       </c>
       <c r="F8" s="3">
         <f>IF(B8:B216="common", 4, IF(B8:B216="uncommon", 3, IF(B8:B216="rare", 0.792892156862745, 1)))</f>
@@ -1066,7 +1066,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="F9" s="3">
         <f>IF(B9:B217="common", 4, IF(B9:B217="uncommon", 3, IF(B9:B217="rare", 0.792892156862745, 1)))</f>
@@ -1173,7 +1173,7 @@
         <v>248</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>4.77</v>
+        <v>4.3</v>
       </c>
       <c r="E11" s="3" t="inlineStr"/>
       <c r="F11" s="3">
@@ -1224,7 +1224,7 @@
         <v>33</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>0.14</v>
@@ -1277,10 +1277,10 @@
         <v>21</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F13" s="3">
         <f>IF(B13:B221="common", 4, IF(B13:B221="uncommon", 3, IF(B13:B221="rare", 0.792892156862745, 1)))</f>
@@ -1330,7 +1330,7 @@
         <v>154</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>4.45</v>
+        <v>4.07</v>
       </c>
       <c r="E14" s="3" t="inlineStr"/>
       <c r="F14" s="3">
@@ -1384,7 +1384,7 @@
         <v>0.14</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="F15" s="3">
         <f>IF(B15:B223="common", 4, IF(B15:B223="uncommon", 3, IF(B15:B223="rare", 0.792892156862745, 1)))</f>
@@ -1487,10 +1487,10 @@
         <v>33</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="F17" s="3">
         <f>IF(B17:B225="common", 4, IF(B17:B225="uncommon", 3, IF(B17:B225="rare", 0.792892156862745, 1)))</f>
@@ -1540,10 +1540,10 @@
         <v>33</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="F18" s="3">
         <f>IF(B18:B226="common", 4, IF(B18:B226="uncommon", 3, IF(B18:B226="rare", 0.792892156862745, 1)))</f>
@@ -1593,7 +1593,7 @@
         <v>248</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>2.85</v>
+        <v>2.76</v>
       </c>
       <c r="E19" s="3" t="inlineStr"/>
       <c r="F19" s="3">
@@ -1644,7 +1644,7 @@
         <v>90</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
       <c r="E20" s="3" t="inlineStr"/>
       <c r="F20" s="3">
@@ -1746,7 +1746,7 @@
         <v>225</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>65.44</v>
+        <v>65.77</v>
       </c>
       <c r="E22" s="3" t="inlineStr"/>
       <c r="F22" s="3">
@@ -1797,7 +1797,7 @@
         <v>46</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E23" s="3" t="n">
         <v>0.16</v>
@@ -1850,7 +1850,7 @@
         <v>188</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>34.08</v>
+        <v>34.47</v>
       </c>
       <c r="E24" s="3" t="inlineStr"/>
       <c r="F24" s="3">
@@ -1904,7 +1904,7 @@
         <v>0.06</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="F25" s="3">
         <f>IF(B25:B233="common", 4, IF(B25:B233="uncommon", 3, IF(B25:B233="rare", 0.792892156862745, 1)))</f>
@@ -1954,7 +1954,7 @@
         <v>46</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E26" s="3" t="n">
         <v>0.19</v>
@@ -2007,7 +2007,7 @@
         <v>188</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>7.19</v>
+        <v>6.72</v>
       </c>
       <c r="E27" s="3" t="inlineStr"/>
       <c r="F27" s="3">
@@ -2058,10 +2058,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F28" s="3">
         <f>IF(B28:B236="common", 4, IF(B28:B236="uncommon", 3, IF(B28:B236="rare", 0.792892156862745, 1)))</f>
@@ -2111,7 +2111,7 @@
         <v>90</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>4.25</v>
+        <v>4.47</v>
       </c>
       <c r="E29" s="3" t="inlineStr"/>
       <c r="F29" s="3">
@@ -2162,7 +2162,7 @@
         <v>248</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>26.9</v>
+        <v>27.01</v>
       </c>
       <c r="E30" s="3" t="inlineStr"/>
       <c r="F30" s="3">
@@ -2213,7 +2213,7 @@
         <v>225</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>198.4</v>
+        <v>198.68</v>
       </c>
       <c r="E31" s="3" t="inlineStr"/>
       <c r="F31" s="3">
@@ -2264,10 +2264,10 @@
         <v>46</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>0.24</v>
+        <v>0.45</v>
       </c>
       <c r="F32" s="3">
         <f>IF(B32:B240="common", 4, IF(B32:B240="uncommon", 3, IF(B32:B240="rare", 0.792892156862745, 1)))</f>
@@ -2368,10 +2368,10 @@
         <v>33</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F34" s="3">
         <f>IF(B34:B242="common", 4, IF(B34:B242="uncommon", 3, IF(B34:B242="rare", 0.792892156862745, 1)))</f>
@@ -2421,7 +2421,7 @@
         <v>188</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>32.18</v>
+        <v>32.91</v>
       </c>
       <c r="E35" s="3" t="inlineStr"/>
       <c r="F35" s="3">
@@ -2472,7 +2472,7 @@
         <v>33</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E36" s="3" t="n">
         <v>0.23</v>
@@ -2528,7 +2528,7 @@
         <v>0.06</v>
       </c>
       <c r="E37" s="3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F37" s="3">
         <f>IF(B37:B245="common", 4, IF(B37:B245="uncommon", 3, IF(B37:B245="rare", 0.792892156862745, 1)))</f>
@@ -2578,7 +2578,7 @@
         <v>33</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E38" s="3" t="n">
         <v>0.18</v>
@@ -2634,7 +2634,7 @@
         <v>0.06</v>
       </c>
       <c r="E39" s="3" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="F39" s="3">
         <f>IF(B39:B247="common", 4, IF(B39:B247="uncommon", 3, IF(B39:B247="rare", 0.792892156862745, 1)))</f>
@@ -2684,10 +2684,10 @@
         <v>33</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E40" s="3" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="F40" s="3">
         <f>IF(B40:B248="common", 4, IF(B40:B248="uncommon", 3, IF(B40:B248="rare", 0.792892156862745, 1)))</f>
@@ -2737,10 +2737,10 @@
         <v>33</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="F41" s="3">
         <f>IF(B41:B249="common", 4, IF(B41:B249="uncommon", 3, IF(B41:B249="rare", 0.792892156862745, 1)))</f>
@@ -2790,7 +2790,7 @@
         <v>248</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>3.26</v>
+        <v>3.27</v>
       </c>
       <c r="E42" s="3" t="inlineStr"/>
       <c r="F42" s="3">
@@ -2947,7 +2947,7 @@
         <v>21</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="E45" s="3" t="n">
         <v>0.65</v>
@@ -3000,7 +3000,7 @@
         <v>21</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="E46" s="3" t="inlineStr"/>
       <c r="F46" s="3">
@@ -3051,10 +3051,10 @@
         <v>21</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E47" s="3" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F47" s="3">
         <f>IF(B47:B255="common", 4, IF(B47:B255="uncommon", 3, IF(B47:B255="rare", 0.792892156862745, 1)))</f>
@@ -3107,7 +3107,7 @@
         <v>0.06</v>
       </c>
       <c r="E48" s="3" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="F48" s="3">
         <f>IF(B48:B256="common", 4, IF(B48:B256="uncommon", 3, IF(B48:B256="rare", 0.792892156862745, 1)))</f>
@@ -3160,7 +3160,7 @@
         <v>0.11</v>
       </c>
       <c r="E49" s="3" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="F49" s="3">
         <f>IF(B49:B257="common", 4, IF(B49:B257="uncommon", 3, IF(B49:B257="rare", 0.792892156862745, 1)))</f>
@@ -3210,7 +3210,7 @@
         <v>188</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>20.51</v>
+        <v>20.52</v>
       </c>
       <c r="E50" s="3" t="inlineStr"/>
       <c r="F50" s="3">
@@ -3261,7 +3261,7 @@
         <v>21</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="E51" s="3" t="n">
         <v>1.37</v>
@@ -3314,10 +3314,10 @@
         <v>46</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E52" s="3" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="F52" s="3">
         <f>IF(B52:B260="common", 4, IF(B52:B260="uncommon", 3, IF(B52:B260="rare", 0.792892156862745, 1)))</f>
@@ -3423,7 +3423,7 @@
         <v>0.05</v>
       </c>
       <c r="E54" s="3" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F54" s="3">
         <f>IF(B54:B262="common", 4, IF(B54:B262="uncommon", 3, IF(B54:B262="rare", 0.792892156862745, 1)))</f>
@@ -3473,10 +3473,10 @@
         <v>46</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E55" s="3" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="F55" s="3">
         <f>IF(B55:B263="common", 4, IF(B55:B263="uncommon", 3, IF(B55:B263="rare", 0.792892156862745, 1)))</f>
@@ -3526,7 +3526,7 @@
         <v>46</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E56" s="3" t="n">
         <v>0.16</v>
@@ -3579,10 +3579,10 @@
         <v>46</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E57" s="3" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="F57" s="3">
         <f>IF(B57:B265="common", 4, IF(B57:B265="uncommon", 3, IF(B57:B265="rare", 0.792892156862745, 1)))</f>
@@ -3632,10 +3632,10 @@
         <v>21</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="E58" s="3" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="F58" s="3">
         <f>IF(B58:B266="common", 4, IF(B58:B266="uncommon", 3, IF(B58:B266="rare", 0.792892156862745, 1)))</f>
@@ -3688,7 +3688,7 @@
         <v>0.14</v>
       </c>
       <c r="E59" s="3" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="F59" s="3">
         <f>IF(B59:B267="common", 4, IF(B59:B267="uncommon", 3, IF(B59:B267="rare", 0.792892156862745, 1)))</f>
@@ -3741,7 +3741,7 @@
         <v>0.09</v>
       </c>
       <c r="E60" s="3" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="F60" s="3">
         <f>IF(B60:B268="common", 4, IF(B60:B268="uncommon", 3, IF(B60:B268="rare", 0.792892156862745, 1)))</f>
@@ -3791,7 +3791,7 @@
         <v>248</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>5.73</v>
+        <v>5.75</v>
       </c>
       <c r="E61" s="3" t="inlineStr"/>
       <c r="F61" s="3">
@@ -3842,7 +3842,7 @@
         <v>225</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>13.57</v>
+        <v>13.1</v>
       </c>
       <c r="E62" s="3" t="inlineStr"/>
       <c r="F62" s="3">
@@ -3893,10 +3893,10 @@
         <v>46</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E63" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F63" s="3">
         <f>IF(B63:B271="common", 4, IF(B63:B271="uncommon", 3, IF(B63:B271="rare", 0.792892156862745, 1)))</f>
@@ -3949,7 +3949,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E64" s="3" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="F64" s="3">
         <f>IF(B64:B272="common", 4, IF(B64:B272="uncommon", 3, IF(B64:B272="rare", 0.792892156862745, 1)))</f>
@@ -4055,7 +4055,7 @@
         <v>0.06</v>
       </c>
       <c r="E66" s="3" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F66" s="3">
         <f>IF(B66:B274="common", 4, IF(B66:B274="uncommon", 3, IF(B66:B274="rare", 0.792892156862745, 1)))</f>
@@ -4105,10 +4105,10 @@
         <v>21</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="E67" s="3" t="n">
-        <v>1.07</v>
+        <v>0.98</v>
       </c>
       <c r="F67" s="3">
         <f>IF(B67:B275="common", 4, IF(B67:B275="uncommon", 3, IF(B67:B275="rare", 0.792892156862745, 1)))</f>
@@ -4158,10 +4158,10 @@
         <v>46</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E68" s="3" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="F68" s="3">
         <f>IF(B68:B276="common", 4, IF(B68:B276="uncommon", 3, IF(B68:B276="rare", 0.792892156862745, 1)))</f>
@@ -4211,10 +4211,10 @@
         <v>21</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="E69" s="3" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="F69" s="3">
         <f>IF(B69:B277="common", 4, IF(B69:B277="uncommon", 3, IF(B69:B277="rare", 0.792892156862745, 1)))</f>
@@ -4267,7 +4267,7 @@
         <v>0.04</v>
       </c>
       <c r="E70" s="3" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="F70" s="3">
         <f>IF(B70:B278="common", 4, IF(B70:B278="uncommon", 3, IF(B70:B278="rare", 0.792892156862745, 1)))</f>
@@ -4317,10 +4317,10 @@
         <v>33</v>
       </c>
       <c r="D71" s="3" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E71" s="3" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="F71" s="3">
         <f>IF(B71:B279="common", 4, IF(B71:B279="uncommon", 3, IF(B71:B279="rare", 0.792892156862745, 1)))</f>
@@ -4370,7 +4370,7 @@
         <v>248</v>
       </c>
       <c r="D72" s="3" t="n">
-        <v>4.94</v>
+        <v>4.48</v>
       </c>
       <c r="E72" s="3" t="inlineStr"/>
       <c r="F72" s="3">
@@ -4421,7 +4421,7 @@
         <v>225</v>
       </c>
       <c r="D73" s="3" t="n">
-        <v>12.87</v>
+        <v>13.06</v>
       </c>
       <c r="E73" s="3" t="inlineStr"/>
       <c r="F73" s="3">
@@ -4472,10 +4472,10 @@
         <v>33</v>
       </c>
       <c r="D74" s="3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E74" s="3" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F74" s="3">
         <f>IF(B74:B282="common", 4, IF(B74:B282="uncommon", 3, IF(B74:B282="rare", 0.792892156862745, 1)))</f>
@@ -4525,7 +4525,7 @@
         <v>33</v>
       </c>
       <c r="D75" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E75" s="3" t="n">
         <v>0.18</v>
@@ -4578,10 +4578,10 @@
         <v>46</v>
       </c>
       <c r="D76" s="3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E76" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F76" s="3">
         <f>IF(B76:B284="common", 4, IF(B76:B284="uncommon", 3, IF(B76:B284="rare", 0.792892156862745, 1)))</f>
@@ -4684,7 +4684,7 @@
         <v>90</v>
       </c>
       <c r="D78" s="3" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="E78" s="3" t="inlineStr"/>
       <c r="F78" s="3">
@@ -4735,7 +4735,7 @@
         <v>248</v>
       </c>
       <c r="D79" s="3" t="n">
-        <v>5.26</v>
+        <v>4.9</v>
       </c>
       <c r="E79" s="3" t="inlineStr"/>
       <c r="F79" s="3">
@@ -4789,7 +4789,7 @@
         <v>0.12</v>
       </c>
       <c r="E80" s="3" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="F80" s="3">
         <f>IF(B80:B288="common", 4, IF(B80:B288="uncommon", 3, IF(B80:B288="rare", 0.792892156862745, 1)))</f>
@@ -4945,10 +4945,10 @@
         <v>46</v>
       </c>
       <c r="D83" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E83" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F83" s="3">
         <f>IF(B83:B291="common", 4, IF(B83:B291="uncommon", 3, IF(B83:B291="rare", 0.792892156862745, 1)))</f>
@@ -4998,7 +4998,7 @@
         <v>21</v>
       </c>
       <c r="D84" s="3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="E84" s="3" t="n">
         <v>0.93</v>
@@ -5104,10 +5104,10 @@
         <v>33</v>
       </c>
       <c r="D86" s="3" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E86" s="3" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="F86" s="3">
         <f>IF(B86:B294="common", 4, IF(B86:B294="uncommon", 3, IF(B86:B294="rare", 0.792892156862745, 1)))</f>
@@ -5157,10 +5157,10 @@
         <v>33</v>
       </c>
       <c r="D87" s="3" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="E87" s="3" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="F87" s="3">
         <f>IF(B87:B295="common", 4, IF(B87:B295="uncommon", 3, IF(B87:B295="rare", 0.792892156862745, 1)))</f>
@@ -5210,10 +5210,10 @@
         <v>46</v>
       </c>
       <c r="D88" s="3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E88" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F88" s="3">
         <f>IF(B88:B296="common", 4, IF(B88:B296="uncommon", 3, IF(B88:B296="rare", 0.792892156862745, 1)))</f>
@@ -5263,10 +5263,10 @@
         <v>33</v>
       </c>
       <c r="D89" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E89" s="3" t="n">
-        <v>1.05</v>
+        <v>0.98</v>
       </c>
       <c r="F89" s="3">
         <f>IF(B89:B297="common", 4, IF(B89:B297="uncommon", 3, IF(B89:B297="rare", 0.792892156862745, 1)))</f>
@@ -5319,7 +5319,7 @@
         <v>0.1</v>
       </c>
       <c r="E90" s="3" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="F90" s="3">
         <f>IF(B90:B298="common", 4, IF(B90:B298="uncommon", 3, IF(B90:B298="rare", 0.792892156862745, 1)))</f>
@@ -5369,7 +5369,7 @@
         <v>188</v>
       </c>
       <c r="D91" s="3" t="n">
-        <v>27.76</v>
+        <v>27.56</v>
       </c>
       <c r="E91" s="3" t="inlineStr"/>
       <c r="F91" s="3">
@@ -5423,7 +5423,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E92" s="3" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="F92" s="3">
         <f>IF(B92:B300="common", 4, IF(B92:B300="uncommon", 3, IF(B92:B300="rare", 0.792892156862745, 1)))</f>
@@ -5473,10 +5473,10 @@
         <v>21</v>
       </c>
       <c r="D93" s="3" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="E93" s="3" t="n">
-        <v>2.14</v>
+        <v>2.03</v>
       </c>
       <c r="F93" s="3">
         <f>IF(B93:B301="common", 4, IF(B93:B301="uncommon", 3, IF(B93:B301="rare", 0.792892156862745, 1)))</f>
@@ -5526,7 +5526,7 @@
         <v>90</v>
       </c>
       <c r="D94" s="3" t="n">
-        <v>0.82</v>
+        <v>0.96</v>
       </c>
       <c r="E94" s="3" t="inlineStr"/>
       <c r="F94" s="3">
@@ -5577,7 +5577,7 @@
         <v>248</v>
       </c>
       <c r="D95" s="3" t="n">
-        <v>4.23</v>
+        <v>4.2</v>
       </c>
       <c r="E95" s="3" t="inlineStr"/>
       <c r="F95" s="3">
@@ -5628,10 +5628,10 @@
         <v>33</v>
       </c>
       <c r="D96" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E96" s="3" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="F96" s="3">
         <f>IF(B96:B304="common", 4, IF(B96:B304="uncommon", 3, IF(B96:B304="rare", 0.792892156862745, 1)))</f>
@@ -5684,7 +5684,7 @@
         <v>0.14</v>
       </c>
       <c r="E97" s="3" t="n">
-        <v>0.96</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F97" s="3">
         <f>IF(B97:B305="common", 4, IF(B97:B305="uncommon", 3, IF(B97:B305="rare", 0.792892156862745, 1)))</f>
@@ -5737,7 +5737,7 @@
         <v>0.05</v>
       </c>
       <c r="E98" s="3" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="F98" s="3">
         <f>IF(B98:B306="common", 4, IF(B98:B306="uncommon", 3, IF(B98:B306="rare", 0.792892156862745, 1)))</f>
@@ -5840,7 +5840,7 @@
         <v>90</v>
       </c>
       <c r="D100" s="3" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="E100" s="3" t="inlineStr"/>
       <c r="F100" s="3">
@@ -5891,7 +5891,7 @@
         <v>248</v>
       </c>
       <c r="D101" s="3" t="n">
-        <v>4.89</v>
+        <v>4.75</v>
       </c>
       <c r="E101" s="3" t="inlineStr"/>
       <c r="F101" s="3">
@@ -5945,7 +5945,7 @@
         <v>0.06</v>
       </c>
       <c r="E102" s="3" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="F102" s="3">
         <f>IF(B102:B310="common", 4, IF(B102:B310="uncommon", 3, IF(B102:B310="rare", 0.792892156862745, 1)))</f>
@@ -5995,7 +5995,7 @@
         <v>46</v>
       </c>
       <c r="D103" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E103" s="3" t="n">
         <v>0.13</v>
@@ -6048,10 +6048,10 @@
         <v>46</v>
       </c>
       <c r="D104" s="3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E104" s="3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F104" s="3">
         <f>IF(B104:B312="common", 4, IF(B104:B312="uncommon", 3, IF(B104:B312="rare", 0.792892156862745, 1)))</f>
@@ -6104,7 +6104,7 @@
         <v>0.09</v>
       </c>
       <c r="E105" s="3" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="F105" s="3">
         <f>IF(B105:B313="common", 4, IF(B105:B313="uncommon", 3, IF(B105:B313="rare", 0.792892156862745, 1)))</f>
@@ -6154,7 +6154,7 @@
         <v>33</v>
       </c>
       <c r="D106" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="E106" s="3" t="n">
         <v>0.51</v>
@@ -6260,10 +6260,10 @@
         <v>21</v>
       </c>
       <c r="D108" s="3" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="E108" s="3" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="F108" s="3">
         <f>IF(B108:B316="common", 4, IF(B108:B316="uncommon", 3, IF(B108:B316="rare", 0.792892156862745, 1)))</f>
@@ -6313,10 +6313,10 @@
         <v>33</v>
       </c>
       <c r="D109" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E109" s="3" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="F109" s="3">
         <f>IF(B109:B317="common", 4, IF(B109:B317="uncommon", 3, IF(B109:B317="rare", 0.792892156862745, 1)))</f>
@@ -6366,7 +6366,7 @@
         <v>188</v>
       </c>
       <c r="D110" s="3" t="n">
-        <v>9.869999999999999</v>
+        <v>10.21</v>
       </c>
       <c r="E110" s="3" t="inlineStr"/>
       <c r="F110" s="3">
@@ -6417,10 +6417,10 @@
         <v>46</v>
       </c>
       <c r="D111" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E111" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F111" s="3">
         <f>IF(B111:B319="common", 4, IF(B111:B319="uncommon", 3, IF(B111:B319="rare", 0.792892156862745, 1)))</f>
@@ -6523,10 +6523,10 @@
         <v>46</v>
       </c>
       <c r="D113" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E113" s="3" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F113" s="3">
         <f>IF(B113:B321="common", 4, IF(B113:B321="uncommon", 3, IF(B113:B321="rare", 0.792892156862745, 1)))</f>
@@ -6685,7 +6685,7 @@
         <v>0.06</v>
       </c>
       <c r="E116" s="3" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F116" s="3">
         <f>IF(B116:B324="common", 4, IF(B116:B324="uncommon", 3, IF(B116:B324="rare", 0.792892156862745, 1)))</f>
@@ -6735,10 +6735,10 @@
         <v>21</v>
       </c>
       <c r="D117" s="3" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E117" s="3" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="F117" s="3">
         <f>IF(B117:B325="common", 4, IF(B117:B325="uncommon", 3, IF(B117:B325="rare", 0.792892156862745, 1)))</f>
@@ -6788,7 +6788,7 @@
         <v>46</v>
       </c>
       <c r="D118" s="3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E118" s="3" t="n">
         <v>0.17</v>
@@ -6841,10 +6841,10 @@
         <v>46</v>
       </c>
       <c r="D119" s="3" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E119" s="3" t="n">
-        <v>2.56</v>
+        <v>2.39</v>
       </c>
       <c r="F119" s="3">
         <f>IF(B119:B327="common", 4, IF(B119:B327="uncommon", 3, IF(B119:B327="rare", 0.792892156862745, 1)))</f>
@@ -6894,7 +6894,7 @@
         <v>90</v>
       </c>
       <c r="D120" s="3" t="n">
-        <v>6.36</v>
+        <v>6.59</v>
       </c>
       <c r="E120" s="3" t="inlineStr"/>
       <c r="F120" s="3">
@@ -6945,7 +6945,7 @@
         <v>248</v>
       </c>
       <c r="D121" s="3" t="n">
-        <v>17.12</v>
+        <v>17.23</v>
       </c>
       <c r="E121" s="3" t="inlineStr"/>
       <c r="F121" s="3">
@@ -6996,7 +6996,7 @@
         <v>154</v>
       </c>
       <c r="D122" s="3" t="n">
-        <v>12</v>
+        <v>11.79</v>
       </c>
       <c r="E122" s="3" t="inlineStr"/>
       <c r="F122" s="3">
@@ -7047,7 +7047,7 @@
         <v>90</v>
       </c>
       <c r="D123" s="3" t="n">
-        <v>9.630000000000001</v>
+        <v>9.19</v>
       </c>
       <c r="E123" s="3" t="inlineStr"/>
       <c r="F123" s="3">
@@ -7098,10 +7098,10 @@
         <v>21</v>
       </c>
       <c r="D124" s="3" t="n">
-        <v>0.47</v>
+        <v>0.7</v>
       </c>
       <c r="E124" s="3" t="n">
-        <v>1.46</v>
+        <v>1.24</v>
       </c>
       <c r="F124" s="3">
         <f>IF(B124:B332="common", 4, IF(B124:B332="uncommon", 3, IF(B124:B332="rare", 0.792892156862745, 1)))</f>
@@ -7151,10 +7151,10 @@
         <v>21</v>
       </c>
       <c r="D125" s="3" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="E125" s="3" t="n">
-        <v>0.64</v>
+        <v>0.59</v>
       </c>
       <c r="F125" s="3">
         <f>IF(B125:B333="common", 4, IF(B125:B333="uncommon", 3, IF(B125:B333="rare", 0.792892156862745, 1)))</f>
@@ -7257,7 +7257,7 @@
         <v>188</v>
       </c>
       <c r="D127" s="3" t="n">
-        <v>5.29</v>
+        <v>5.61</v>
       </c>
       <c r="E127" s="3" t="inlineStr"/>
       <c r="F127" s="3">
@@ -7361,7 +7361,7 @@
         <v>21</v>
       </c>
       <c r="D129" s="3" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="E129" s="3" t="n">
         <v>0.7</v>
@@ -7414,7 +7414,7 @@
         <v>188</v>
       </c>
       <c r="D130" s="3" t="n">
-        <v>9.15</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="E130" s="3" t="inlineStr"/>
       <c r="F130" s="3">
@@ -7465,7 +7465,7 @@
         <v>33</v>
       </c>
       <c r="D131" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E131" s="3" t="n">
         <v>0.19</v>
@@ -7521,7 +7521,7 @@
         <v>0.13</v>
       </c>
       <c r="E132" s="3" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="F132" s="3">
         <f>IF(B132:B340="common", 4, IF(B132:B340="uncommon", 3, IF(B132:B340="rare", 0.792892156862745, 1)))</f>
@@ -7571,10 +7571,10 @@
         <v>46</v>
       </c>
       <c r="D133" s="3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E133" s="3" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="F133" s="3">
         <f>IF(B133:B341="common", 4, IF(B133:B341="uncommon", 3, IF(B133:B341="rare", 0.792892156862745, 1)))</f>
@@ -7677,7 +7677,7 @@
         <v>33</v>
       </c>
       <c r="D135" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E135" s="3" t="n">
         <v>0.16</v>
@@ -7730,7 +7730,7 @@
         <v>90</v>
       </c>
       <c r="D136" s="3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="E136" s="3" t="inlineStr"/>
       <c r="F136" s="3">
@@ -7781,7 +7781,7 @@
         <v>248</v>
       </c>
       <c r="D137" s="3" t="n">
-        <v>7.36</v>
+        <v>7.28</v>
       </c>
       <c r="E137" s="3" t="inlineStr"/>
       <c r="F137" s="3">
@@ -7835,7 +7835,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E138" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F138" s="3">
         <f>IF(B138:B346="common", 4, IF(B138:B346="uncommon", 3, IF(B138:B346="rare", 0.792892156862745, 1)))</f>
@@ -7885,10 +7885,10 @@
         <v>33</v>
       </c>
       <c r="D139" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E139" s="3" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="F139" s="3">
         <f>IF(B139:B347="common", 4, IF(B139:B347="uncommon", 3, IF(B139:B347="rare", 0.792892156862745, 1)))</f>
@@ -7938,7 +7938,7 @@
         <v>188</v>
       </c>
       <c r="D140" s="3" t="n">
-        <v>5.75</v>
+        <v>5.69</v>
       </c>
       <c r="E140" s="3" t="inlineStr"/>
       <c r="F140" s="3">
@@ -7989,10 +7989,10 @@
         <v>21</v>
       </c>
       <c r="D141" s="3" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E141" s="3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="F141" s="3">
         <f>IF(B141:B349="common", 4, IF(B141:B349="uncommon", 3, IF(B141:B349="rare", 0.792892156862745, 1)))</f>
@@ -8042,10 +8042,10 @@
         <v>33</v>
       </c>
       <c r="D142" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E142" s="3" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="F142" s="3">
         <f>IF(B142:B350="common", 4, IF(B142:B350="uncommon", 3, IF(B142:B350="rare", 0.792892156862745, 1)))</f>
@@ -8095,7 +8095,7 @@
         <v>46</v>
       </c>
       <c r="D143" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E143" s="3" t="n">
         <v>0.15</v>
@@ -8148,7 +8148,7 @@
         <v>33</v>
       </c>
       <c r="D144" s="3" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E144" s="3" t="n">
         <v>0.16</v>
@@ -8204,7 +8204,7 @@
         <v>0.05</v>
       </c>
       <c r="E145" s="3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F145" s="3">
         <f>IF(B145:B353="common", 4, IF(B145:B353="uncommon", 3, IF(B145:B353="rare", 0.792892156862745, 1)))</f>
@@ -8257,7 +8257,7 @@
         <v>0.08</v>
       </c>
       <c r="E146" s="3" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="F146" s="3">
         <f>IF(B146:B354="common", 4, IF(B146:B354="uncommon", 3, IF(B146:B354="rare", 0.792892156862745, 1)))</f>
@@ -8307,10 +8307,10 @@
         <v>46</v>
       </c>
       <c r="D147" s="3" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="E147" s="3" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="F147" s="3">
         <f>IF(B147:B355="common", 4, IF(B147:B355="uncommon", 3, IF(B147:B355="rare", 0.792892156862745, 1)))</f>
@@ -8363,7 +8363,7 @@
         <v>0.1</v>
       </c>
       <c r="E148" s="3" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="F148" s="3">
         <f>IF(B148:B356="common", 4, IF(B148:B356="uncommon", 3, IF(B148:B356="rare", 0.792892156862745, 1)))</f>
@@ -8466,7 +8466,7 @@
         <v>188</v>
       </c>
       <c r="D150" s="3" t="n">
-        <v>24.78</v>
+        <v>25.64</v>
       </c>
       <c r="E150" s="3" t="inlineStr"/>
       <c r="F150" s="3">
@@ -8520,7 +8520,7 @@
         <v>0.06</v>
       </c>
       <c r="E151" s="3" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="F151" s="3">
         <f>IF(B151:B359="common", 4, IF(B151:B359="uncommon", 3, IF(B151:B359="rare", 0.792892156862745, 1)))</f>
@@ -8570,7 +8570,7 @@
         <v>46</v>
       </c>
       <c r="D152" s="3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E152" s="3" t="n">
         <v>0.13</v>
@@ -8626,7 +8626,7 @@
         <v>0.12</v>
       </c>
       <c r="E153" s="3" t="n">
-        <v>1.79</v>
+        <v>1.61</v>
       </c>
       <c r="F153" s="3">
         <f>IF(B153:B361="common", 4, IF(B153:B361="uncommon", 3, IF(B153:B361="rare", 0.792892156862745, 1)))</f>
@@ -8676,7 +8676,7 @@
         <v>188</v>
       </c>
       <c r="D154" s="3" t="n">
-        <v>16.93</v>
+        <v>17.12</v>
       </c>
       <c r="E154" s="3" t="inlineStr"/>
       <c r="F154" s="3">
@@ -8727,10 +8727,10 @@
         <v>33</v>
       </c>
       <c r="D155" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E155" s="3" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="F155" s="3">
         <f>IF(B155:B363="common", 4, IF(B155:B363="uncommon", 3, IF(B155:B363="rare", 0.792892156862745, 1)))</f>
@@ -8780,7 +8780,7 @@
         <v>46</v>
       </c>
       <c r="D156" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E156" s="3" t="n">
         <v>0.12</v>
@@ -8942,7 +8942,7 @@
         <v>0.13</v>
       </c>
       <c r="E159" s="3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="F159" s="3">
         <f>IF(B159:B367="common", 4, IF(B159:B367="uncommon", 3, IF(B159:B367="rare", 0.792892156862745, 1)))</f>
@@ -8992,10 +8992,10 @@
         <v>46</v>
       </c>
       <c r="D160" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E160" s="3" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="F160" s="3">
         <f>IF(B160:B368="common", 4, IF(B160:B368="uncommon", 3, IF(B160:B368="rare", 0.792892156862745, 1)))</f>
@@ -9045,7 +9045,7 @@
         <v>188</v>
       </c>
       <c r="D161" s="3" t="n">
-        <v>18.6</v>
+        <v>19.17</v>
       </c>
       <c r="E161" s="3" t="inlineStr"/>
       <c r="F161" s="3">
@@ -9099,7 +9099,7 @@
         <v>0.13</v>
       </c>
       <c r="E162" s="3" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="F162" s="3">
         <f>IF(B162:B370="common", 4, IF(B162:B370="uncommon", 3, IF(B162:B370="rare", 0.792892156862745, 1)))</f>
@@ -9149,7 +9149,7 @@
         <v>33</v>
       </c>
       <c r="D163" s="3" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E163" s="3" t="n">
         <v>0.13</v>
@@ -9205,7 +9205,7 @@
         <v>0.06</v>
       </c>
       <c r="E164" s="3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F164" s="3">
         <f>IF(B164:B372="common", 4, IF(B164:B372="uncommon", 3, IF(B164:B372="rare", 0.792892156862745, 1)))</f>
@@ -9255,7 +9255,7 @@
         <v>46</v>
       </c>
       <c r="D165" s="3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E165" s="3" t="n">
         <v>0.16</v>
@@ -9361,7 +9361,7 @@
         <v>46</v>
       </c>
       <c r="D167" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E167" s="3" t="n">
         <v>0.12</v>
@@ -9414,7 +9414,7 @@
         <v>33</v>
       </c>
       <c r="D168" s="3" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="E168" s="3" t="n">
         <v>0.89</v>
@@ -9467,7 +9467,7 @@
         <v>46</v>
       </c>
       <c r="D169" s="3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E169" s="3" t="n">
         <v>0.17</v>
@@ -9520,7 +9520,7 @@
         <v>33</v>
       </c>
       <c r="D170" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E170" s="3" t="n">
         <v>0.15</v>
@@ -9573,10 +9573,10 @@
         <v>33</v>
       </c>
       <c r="D171" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E171" s="3" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="F171" s="3">
         <f>IF(B171:B379="common", 4, IF(B171:B379="uncommon", 3, IF(B171:B379="rare", 0.792892156862745, 1)))</f>
@@ -9626,10 +9626,10 @@
         <v>33</v>
       </c>
       <c r="D172" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E172" s="3" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="F172" s="3">
         <f>IF(B172:B380="common", 4, IF(B172:B380="uncommon", 3, IF(B172:B380="rare", 0.792892156862745, 1)))</f>
@@ -9679,10 +9679,10 @@
         <v>33</v>
       </c>
       <c r="D173" s="3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E173" s="3" t="n">
-        <v>0.97</v>
+        <v>0.87</v>
       </c>
       <c r="F173" s="3">
         <f>IF(B173:B381="common", 4, IF(B173:B381="uncommon", 3, IF(B173:B381="rare", 0.792892156862745, 1)))</f>
@@ -9788,7 +9788,7 @@
         <v>0.06</v>
       </c>
       <c r="E175" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F175" s="3">
         <f>IF(B175:B383="common", 4, IF(B175:B383="uncommon", 3, IF(B175:B383="rare", 0.792892156862745, 1)))</f>
@@ -9838,7 +9838,7 @@
         <v>33</v>
       </c>
       <c r="D176" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E176" s="3" t="n">
         <v>0.15</v>
@@ -9891,10 +9891,10 @@
         <v>46</v>
       </c>
       <c r="D177" s="3" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E177" s="3" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="F177" s="3">
         <f>IF(B177:B385="common", 4, IF(B177:B385="uncommon", 3, IF(B177:B385="rare", 0.792892156862745, 1)))</f>
@@ -9947,7 +9947,7 @@
         <v>0.12</v>
       </c>
       <c r="E178" s="3" t="n">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="F178" s="3">
         <f>IF(B178:B386="common", 4, IF(B178:B386="uncommon", 3, IF(B178:B386="rare", 0.792892156862745, 1)))</f>
@@ -10000,7 +10000,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E179" s="3" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="F179" s="3">
         <f>IF(B179:B387="common", 4, IF(B179:B387="uncommon", 3, IF(B179:B387="rare", 0.792892156862745, 1)))</f>
@@ -10050,7 +10050,7 @@
         <v>46</v>
       </c>
       <c r="D180" s="3" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E180" s="3" t="n">
         <v>0.18</v>
@@ -10103,7 +10103,7 @@
         <v>188</v>
       </c>
       <c r="D181" s="3" t="n">
-        <v>38.56</v>
+        <v>38.24</v>
       </c>
       <c r="E181" s="3" t="inlineStr"/>
       <c r="F181" s="3">
@@ -10154,10 +10154,10 @@
         <v>21</v>
       </c>
       <c r="D182" s="3" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="E182" s="3" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="F182" s="3">
         <f>IF(B182:B390="common", 4, IF(B182:B390="uncommon", 3, IF(B182:B390="rare", 0.792892156862745, 1)))</f>
@@ -10260,7 +10260,7 @@
         <v>154</v>
       </c>
       <c r="D184" s="3" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="E184" s="3" t="inlineStr"/>
       <c r="F184" s="3">
@@ -10311,10 +10311,10 @@
         <v>46</v>
       </c>
       <c r="D185" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E185" s="3" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="F185" s="3">
         <f>IF(B185:B393="common", 4, IF(B185:B393="uncommon", 3, IF(B185:B393="rare", 0.792892156862745, 1)))</f>
@@ -10364,7 +10364,7 @@
         <v>188</v>
       </c>
       <c r="D186" s="3" t="n">
-        <v>6.47</v>
+        <v>6.86</v>
       </c>
       <c r="E186" s="3" t="inlineStr"/>
       <c r="F186" s="3">
@@ -10418,7 +10418,7 @@
         <v>0.1</v>
       </c>
       <c r="E187" s="3" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="F187" s="3">
         <f>IF(B187:B395="common", 4, IF(B187:B395="uncommon", 3, IF(B187:B395="rare", 0.792892156862745, 1)))</f>
@@ -10577,7 +10577,7 @@
         <v>0.22</v>
       </c>
       <c r="E190" s="3" t="n">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="F190" s="3">
         <f>IF(B190:B398="common", 4, IF(B190:B398="uncommon", 3, IF(B190:B398="rare", 0.792892156862745, 1)))</f>
@@ -10630,7 +10630,7 @@
         <v>0.08</v>
       </c>
       <c r="E191" s="3" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="F191" s="3">
         <f>IF(B191:B399="common", 4, IF(B191:B399="uncommon", 3, IF(B191:B399="rare", 0.792892156862745, 1)))</f>
@@ -10733,7 +10733,7 @@
         <v>90</v>
       </c>
       <c r="D193" s="3" t="n">
-        <v>0.73</v>
+        <v>0.6</v>
       </c>
       <c r="E193" s="3" t="inlineStr"/>
       <c r="F193" s="3">
@@ -10784,7 +10784,7 @@
         <v>248</v>
       </c>
       <c r="D194" s="3" t="n">
-        <v>9.5</v>
+        <v>9.59</v>
       </c>
       <c r="E194" s="3" t="inlineStr"/>
       <c r="F194" s="3">
@@ -10835,7 +10835,7 @@
         <v>225</v>
       </c>
       <c r="D195" s="3" t="n">
-        <v>57.55</v>
+        <v>58.02</v>
       </c>
       <c r="E195" s="3" t="inlineStr"/>
       <c r="F195" s="3">
@@ -10939,10 +10939,10 @@
         <v>21</v>
       </c>
       <c r="D197" s="3" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="E197" s="3" t="n">
-        <v>0.77</v>
+        <v>0.68</v>
       </c>
       <c r="F197" s="3">
         <f>IF(B197:B405="common", 4, IF(B197:B405="uncommon", 3, IF(B197:B405="rare", 0.792892156862745, 1)))</f>
@@ -10992,7 +10992,7 @@
         <v>46</v>
       </c>
       <c r="D198" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E198" s="3" t="n">
         <v>0.13</v>
@@ -11098,10 +11098,10 @@
         <v>33</v>
       </c>
       <c r="D200" s="3" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E200" s="3" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="F200" s="3">
         <f>IF(B200:B408="common", 4, IF(B200:B408="uncommon", 3, IF(B200:B408="rare", 0.792892156862745, 1)))</f>
@@ -11151,7 +11151,7 @@
         <v>188</v>
       </c>
       <c r="D201" s="3" t="n">
-        <v>23.06</v>
+        <v>23.62</v>
       </c>
       <c r="E201" s="3" t="inlineStr"/>
       <c r="F201" s="3">
@@ -11205,7 +11205,7 @@
         <v>0.05</v>
       </c>
       <c r="E202" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F202" s="3">
         <f>IF(B202:B410="common", 4, IF(B202:B410="uncommon", 3, IF(B202:B410="rare", 0.792892156862745, 1)))</f>
@@ -11255,10 +11255,10 @@
         <v>46</v>
       </c>
       <c r="D203" s="3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E203" s="3" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="F203" s="3">
         <f>IF(B203:B411="common", 4, IF(B203:B411="uncommon", 3, IF(B203:B411="rare", 0.792892156862745, 1)))</f>
@@ -11308,10 +11308,10 @@
         <v>21</v>
       </c>
       <c r="D204" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E204" s="3" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="F204" s="3">
         <f>IF(B204:B412="common", 4, IF(B204:B412="uncommon", 3, IF(B204:B412="rare", 0.792892156862745, 1)))</f>
@@ -11361,7 +11361,7 @@
         <v>90</v>
       </c>
       <c r="D205" s="3" t="n">
-        <v>0.74</v>
+        <v>0.62</v>
       </c>
       <c r="E205" s="3" t="inlineStr"/>
       <c r="F205" s="3">
@@ -11412,7 +11412,7 @@
         <v>248</v>
       </c>
       <c r="D206" s="3" t="n">
-        <v>6.46</v>
+        <v>6.01</v>
       </c>
       <c r="E206" s="3" t="inlineStr"/>
       <c r="F206" s="3">
@@ -11463,7 +11463,7 @@
         <v>90</v>
       </c>
       <c r="D207" s="3" t="n">
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="E207" s="3" t="inlineStr"/>
       <c r="F207" s="3">
@@ -11514,7 +11514,7 @@
         <v>248</v>
       </c>
       <c r="D208" s="3" t="n">
-        <v>7.29</v>
+        <v>7.19</v>
       </c>
       <c r="E208" s="3" t="inlineStr"/>
       <c r="F208" s="3">
@@ -11565,7 +11565,7 @@
         <v>225</v>
       </c>
       <c r="D209" s="3" t="n">
-        <v>47.08</v>
+        <v>47.43</v>
       </c>
       <c r="E209" s="3" t="inlineStr"/>
       <c r="F209" s="3">
@@ -11616,10 +11616,10 @@
         <v>46</v>
       </c>
       <c r="D210" s="3" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E210" s="3" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="F210" s="3">
         <f>IF(B210:B418="common", 4, IF(B210:B418="uncommon", 3, IF(B210:B418="rare", 0.792892156862745, 1)))</f>
@@ -18308,7 +18308,7 @@
         </is>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.4</v>
+        <v>0.3956521739130435</v>
       </c>
     </row>
     <row r="3">
@@ -18318,7 +18318,7 @@
         </is>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.4518181818181817</v>
+        <v>0.4836363636363635</v>
       </c>
     </row>
     <row r="4">
@@ -18328,7 +18328,7 @@
         </is>
       </c>
       <c r="B4" s="13" t="n">
-        <v>0.192937091503268</v>
+        <v>0.1940697945845005</v>
       </c>
     </row>
     <row r="5">
@@ -18338,7 +18338,7 @@
         </is>
       </c>
       <c r="B5" s="13" t="n">
-        <v>5.184226906095112</v>
+        <v>5.106821201141853</v>
       </c>
     </row>
     <row r="6">
@@ -18378,7 +18378,7 @@
         </is>
       </c>
       <c r="B9" s="13" t="n">
-        <v>1.717021276595745</v>
+        <v>1.732659574468085</v>
       </c>
     </row>
     <row r="10">
@@ -18388,7 +18388,7 @@
         </is>
       </c>
       <c r="B10" s="13" t="n">
-        <v>1.917377777777778</v>
+        <v>1.924355555555556</v>
       </c>
     </row>
     <row r="11">
@@ -18398,7 +18398,7 @@
         </is>
       </c>
       <c r="B11" s="13" t="n">
-        <v>0.3141111111111111</v>
+        <v>0.3109999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -18408,7 +18408,7 @@
         </is>
       </c>
       <c r="B12" s="13" t="n">
-        <v>0.1208441558441558</v>
+        <v>0.1167532467532467</v>
       </c>
     </row>
     <row r="13">
@@ -18418,7 +18418,7 @@
         </is>
       </c>
       <c r="B13" s="13" t="n">
-        <v>0.5269354838709677</v>
+        <v>0.517983870967742</v>
       </c>
     </row>
     <row r="14">
@@ -18448,7 +18448,7 @@
         </is>
       </c>
       <c r="B16" s="13" t="n">
-        <v>4.596289805199757</v>
+        <v>4.602752247744629</v>
       </c>
     </row>
     <row r="17">
@@ -18458,7 +18458,7 @@
         </is>
       </c>
       <c r="B17" s="13" t="n">
-        <v>10.82527198461632</v>
+        <v>10.78293178102039</v>
       </c>
     </row>
     <row r="18">
@@ -18468,7 +18468,7 @@
         </is>
       </c>
       <c r="B18" s="13" t="n">
-        <v>0.9352719846163176</v>
+        <v>0.7929317810203909</v>
       </c>
     </row>
     <row r="19">
@@ -18478,7 +18478,7 @@
         </is>
       </c>
       <c r="B19" s="14" t="n">
-        <v>1.094567440304987</v>
+        <v>1.079372550652692</v>
       </c>
     </row>
     <row r="20">
@@ -18488,7 +18488,7 @@
         </is>
       </c>
       <c r="B20" s="15" t="n">
-        <v>0.09456744030498655</v>
+        <v>0.07937255065269189</v>
       </c>
     </row>
     <row r="21">

--- a/excelDocs/scarletAndViolet151/pokemon_data.xlsx
+++ b/excelDocs/scarletAndViolet151/pokemon_data.xlsx
@@ -667,7 +667,7 @@
         <v>0.05</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F2" s="3">
         <f>IF(B2:B210="common", 4, IF(B2:B210="uncommon", 3, IF(B2:B210="rare", 0.792892156862745, 1)))</f>
@@ -682,20 +682,20 @@
         <v/>
       </c>
       <c r="I2" s="3" t="n">
-        <v>9.99</v>
+        <v>10.31</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>65.69</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>233.43</v>
+        <v>233.87</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>6.35</v>
+        <v>6.51</v>
       </c>
       <c r="M2" s="3" t="n"/>
       <c r="N2" s="3" t="n">
-        <v>373.94</v>
+        <v>364</v>
       </c>
       <c r="R2" s="3" t="n"/>
       <c r="S2" s="3" t="n"/>
@@ -733,10 +733,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="F3" s="3">
         <f>IF(B3:B211="common", 4, IF(B3:B211="uncommon", 3, IF(B3:B211="rare", 0.792892156862745, 1)))</f>
@@ -789,7 +789,7 @@
         <v>90</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="E4" s="3" t="inlineStr"/>
       <c r="F4" s="3">
@@ -843,7 +843,7 @@
         <v>248</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>6.63</v>
+        <v>5.43</v>
       </c>
       <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3">
@@ -897,7 +897,7 @@
         <v>225</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>36.92</v>
+        <v>37.41</v>
       </c>
       <c r="E6" s="3" t="inlineStr"/>
       <c r="F6" s="3">
@@ -954,7 +954,7 @@
         <v>0.1</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.48</v>
+        <v>0.59</v>
       </c>
       <c r="F7" s="3">
         <f>IF(B7:B215="common", 4, IF(B7:B215="uncommon", 3, IF(B7:B215="rare", 0.792892156862745, 1)))</f>
@@ -1010,7 +1010,7 @@
         <v>0.1</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>1.02</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F8" s="3">
         <f>IF(B8:B216="common", 4, IF(B8:B216="uncommon", 3, IF(B8:B216="rare", 0.792892156862745, 1)))</f>
@@ -1063,10 +1063,10 @@
         <v>46</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="F9" s="3">
         <f>IF(B9:B217="common", 4, IF(B9:B217="uncommon", 3, IF(B9:B217="rare", 0.792892156862745, 1)))</f>
@@ -1119,7 +1119,7 @@
         <v>90</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="E10" s="3" t="inlineStr"/>
       <c r="F10" s="3">
@@ -1173,7 +1173,7 @@
         <v>248</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>4.3</v>
+        <v>4.17</v>
       </c>
       <c r="E11" s="3" t="inlineStr"/>
       <c r="F11" s="3">
@@ -1227,7 +1227,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F12" s="3">
         <f>IF(B12:B220="common", 4, IF(B12:B220="uncommon", 3, IF(B12:B220="rare", 0.792892156862745, 1)))</f>
@@ -1280,7 +1280,7 @@
         <v>0.17</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>0.99</v>
+        <v>0.82</v>
       </c>
       <c r="F13" s="3">
         <f>IF(B13:B221="common", 4, IF(B13:B221="uncommon", 3, IF(B13:B221="rare", 0.792892156862745, 1)))</f>
@@ -1330,7 +1330,7 @@
         <v>154</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>4.07</v>
+        <v>3.61</v>
       </c>
       <c r="E14" s="3" t="inlineStr"/>
       <c r="F14" s="3">
@@ -1381,10 +1381,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="F15" s="3">
         <f>IF(B15:B223="common", 4, IF(B15:B223="uncommon", 3, IF(B15:B223="rare", 0.792892156862745, 1)))</f>
@@ -1437,7 +1437,7 @@
         <v>0.06</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="F16" s="3">
         <f>IF(B16:B224="common", 4, IF(B16:B224="uncommon", 3, IF(B16:B224="rare", 0.792892156862745, 1)))</f>
@@ -1487,10 +1487,10 @@
         <v>33</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="F17" s="3">
         <f>IF(B17:B225="common", 4, IF(B17:B225="uncommon", 3, IF(B17:B225="rare", 0.792892156862745, 1)))</f>
@@ -1540,10 +1540,10 @@
         <v>33</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="F18" s="3">
         <f>IF(B18:B226="common", 4, IF(B18:B226="uncommon", 3, IF(B18:B226="rare", 0.792892156862745, 1)))</f>
@@ -1644,7 +1644,7 @@
         <v>90</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="E20" s="3" t="inlineStr"/>
       <c r="F20" s="3">
@@ -1695,7 +1695,7 @@
         <v>248</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>13.11</v>
+        <v>12.91</v>
       </c>
       <c r="E21" s="3" t="inlineStr"/>
       <c r="F21" s="3">
@@ -1746,7 +1746,7 @@
         <v>225</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>65.77</v>
+        <v>66.5</v>
       </c>
       <c r="E22" s="3" t="inlineStr"/>
       <c r="F22" s="3">
@@ -1800,7 +1800,7 @@
         <v>0.08</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F23" s="3">
         <f>IF(B23:B231="common", 4, IF(B23:B231="uncommon", 3, IF(B23:B231="rare", 0.792892156862745, 1)))</f>
@@ -1850,7 +1850,7 @@
         <v>188</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>34.47</v>
+        <v>33.31</v>
       </c>
       <c r="E24" s="3" t="inlineStr"/>
       <c r="F24" s="3">
@@ -1901,10 +1901,10 @@
         <v>33</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F25" s="3">
         <f>IF(B25:B233="common", 4, IF(B25:B233="uncommon", 3, IF(B25:B233="rare", 0.792892156862745, 1)))</f>
@@ -1954,10 +1954,10 @@
         <v>46</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="F26" s="3">
         <f>IF(B26:B234="common", 4, IF(B26:B234="uncommon", 3, IF(B26:B234="rare", 0.792892156862745, 1)))</f>
@@ -2007,7 +2007,7 @@
         <v>188</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>6.72</v>
+        <v>7.22</v>
       </c>
       <c r="E27" s="3" t="inlineStr"/>
       <c r="F27" s="3">
@@ -2058,10 +2058,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F28" s="3">
         <f>IF(B28:B236="common", 4, IF(B28:B236="uncommon", 3, IF(B28:B236="rare", 0.792892156862745, 1)))</f>
@@ -2111,7 +2111,7 @@
         <v>90</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>4.47</v>
+        <v>4.68</v>
       </c>
       <c r="E29" s="3" t="inlineStr"/>
       <c r="F29" s="3">
@@ -2162,7 +2162,7 @@
         <v>248</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>27.01</v>
+        <v>25.81</v>
       </c>
       <c r="E30" s="3" t="inlineStr"/>
       <c r="F30" s="3">
@@ -2213,7 +2213,7 @@
         <v>225</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>198.68</v>
+        <v>196.72</v>
       </c>
       <c r="E31" s="3" t="inlineStr"/>
       <c r="F31" s="3">
@@ -2267,7 +2267,7 @@
         <v>0.1</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="F32" s="3">
         <f>IF(B32:B240="common", 4, IF(B32:B240="uncommon", 3, IF(B32:B240="rare", 0.792892156862745, 1)))</f>
@@ -2317,7 +2317,7 @@
         <v>188</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>42.62</v>
+        <v>43.26</v>
       </c>
       <c r="E33" s="3" t="inlineStr"/>
       <c r="F33" s="3">
@@ -2368,10 +2368,10 @@
         <v>33</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>0.27</v>
+        <v>0.13</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
       <c r="F34" s="3">
         <f>IF(B34:B242="common", 4, IF(B34:B242="uncommon", 3, IF(B34:B242="rare", 0.792892156862745, 1)))</f>
@@ -2421,7 +2421,7 @@
         <v>188</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>32.91</v>
+        <v>33.91</v>
       </c>
       <c r="E35" s="3" t="inlineStr"/>
       <c r="F35" s="3">
@@ -2472,10 +2472,10 @@
         <v>33</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E36" s="3" t="n">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="F36" s="3">
         <f>IF(B36:B244="common", 4, IF(B36:B244="uncommon", 3, IF(B36:B244="rare", 0.792892156862745, 1)))</f>
@@ -2578,10 +2578,10 @@
         <v>33</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="F38" s="3">
         <f>IF(B38:B246="common", 4, IF(B38:B246="uncommon", 3, IF(B38:B246="rare", 0.792892156862745, 1)))</f>
@@ -2631,10 +2631,10 @@
         <v>46</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E39" s="3" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="F39" s="3">
         <f>IF(B39:B247="common", 4, IF(B39:B247="uncommon", 3, IF(B39:B247="rare", 0.792892156862745, 1)))</f>
@@ -2684,10 +2684,10 @@
         <v>33</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E40" s="3" t="n">
-        <v>0.71</v>
+        <v>0.61</v>
       </c>
       <c r="F40" s="3">
         <f>IF(B40:B248="common", 4, IF(B40:B248="uncommon", 3, IF(B40:B248="rare", 0.792892156862745, 1)))</f>
@@ -2737,10 +2737,10 @@
         <v>33</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>0.66</v>
+        <v>0.52</v>
       </c>
       <c r="F41" s="3">
         <f>IF(B41:B249="common", 4, IF(B41:B249="uncommon", 3, IF(B41:B249="rare", 0.792892156862745, 1)))</f>
@@ -2790,7 +2790,7 @@
         <v>248</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>3.27</v>
+        <v>3.33</v>
       </c>
       <c r="E42" s="3" t="inlineStr"/>
       <c r="F42" s="3">
@@ -2841,10 +2841,10 @@
         <v>33</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F43" s="3">
         <f>IF(B43:B251="common", 4, IF(B43:B251="uncommon", 3, IF(B43:B251="rare", 0.792892156862745, 1)))</f>
@@ -2894,10 +2894,10 @@
         <v>46</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E44" s="3" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="F44" s="3">
         <f>IF(B44:B252="common", 4, IF(B44:B252="uncommon", 3, IF(B44:B252="rare", 0.792892156862745, 1)))</f>
@@ -2947,10 +2947,10 @@
         <v>21</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="E45" s="3" t="n">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="F45" s="3">
         <f>IF(B45:B253="common", 4, IF(B45:B253="uncommon", 3, IF(B45:B253="rare", 0.792892156862745, 1)))</f>
@@ -3000,7 +3000,7 @@
         <v>21</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="E46" s="3" t="inlineStr"/>
       <c r="F46" s="3">
@@ -3051,10 +3051,10 @@
         <v>21</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="E47" s="3" t="n">
-        <v>0.89</v>
+        <v>0.7</v>
       </c>
       <c r="F47" s="3">
         <f>IF(B47:B255="common", 4, IF(B47:B255="uncommon", 3, IF(B47:B255="rare", 0.792892156862745, 1)))</f>
@@ -3104,10 +3104,10 @@
         <v>46</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E48" s="3" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="F48" s="3">
         <f>IF(B48:B256="common", 4, IF(B48:B256="uncommon", 3, IF(B48:B256="rare", 0.792892156862745, 1)))</f>
@@ -3157,10 +3157,10 @@
         <v>33</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="E49" s="3" t="n">
-        <v>1.69</v>
+        <v>1.47</v>
       </c>
       <c r="F49" s="3">
         <f>IF(B49:B257="common", 4, IF(B49:B257="uncommon", 3, IF(B49:B257="rare", 0.792892156862745, 1)))</f>
@@ -3210,7 +3210,7 @@
         <v>188</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>20.52</v>
+        <v>21.62</v>
       </c>
       <c r="E50" s="3" t="inlineStr"/>
       <c r="F50" s="3">
@@ -3261,10 +3261,10 @@
         <v>21</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>0.3</v>
+        <v>0.41</v>
       </c>
       <c r="E51" s="3" t="n">
-        <v>1.37</v>
+        <v>1.59</v>
       </c>
       <c r="F51" s="3">
         <f>IF(B51:B259="common", 4, IF(B51:B259="uncommon", 3, IF(B51:B259="rare", 0.792892156862745, 1)))</f>
@@ -3314,10 +3314,10 @@
         <v>46</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E52" s="3" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="F52" s="3">
         <f>IF(B52:B260="common", 4, IF(B52:B260="uncommon", 3, IF(B52:B260="rare", 0.792892156862745, 1)))</f>
@@ -3367,7 +3367,7 @@
         <v>46</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E53" s="3" t="n">
         <v>0.13</v>
@@ -3420,10 +3420,10 @@
         <v>33</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E54" s="3" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="F54" s="3">
         <f>IF(B54:B262="common", 4, IF(B54:B262="uncommon", 3, IF(B54:B262="rare", 0.792892156862745, 1)))</f>
@@ -3473,10 +3473,10 @@
         <v>46</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E55" s="3" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="F55" s="3">
         <f>IF(B55:B263="common", 4, IF(B55:B263="uncommon", 3, IF(B55:B263="rare", 0.792892156862745, 1)))</f>
@@ -3526,10 +3526,10 @@
         <v>46</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E56" s="3" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="F56" s="3">
         <f>IF(B56:B264="common", 4, IF(B56:B264="uncommon", 3, IF(B56:B264="rare", 0.792892156862745, 1)))</f>
@@ -3579,10 +3579,10 @@
         <v>46</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E57" s="3" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="F57" s="3">
         <f>IF(B57:B265="common", 4, IF(B57:B265="uncommon", 3, IF(B57:B265="rare", 0.792892156862745, 1)))</f>
@@ -3632,10 +3632,10 @@
         <v>21</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="E58" s="3" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="F58" s="3">
         <f>IF(B58:B266="common", 4, IF(B58:B266="uncommon", 3, IF(B58:B266="rare", 0.792892156862745, 1)))</f>
@@ -3685,10 +3685,10 @@
         <v>33</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="E59" s="3" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="F59" s="3">
         <f>IF(B59:B267="common", 4, IF(B59:B267="uncommon", 3, IF(B59:B267="rare", 0.792892156862745, 1)))</f>
@@ -3741,7 +3741,7 @@
         <v>0.09</v>
       </c>
       <c r="E60" s="3" t="n">
-        <v>0.48</v>
+        <v>0.57</v>
       </c>
       <c r="F60" s="3">
         <f>IF(B60:B268="common", 4, IF(B60:B268="uncommon", 3, IF(B60:B268="rare", 0.792892156862745, 1)))</f>
@@ -3791,7 +3791,7 @@
         <v>248</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>5.75</v>
+        <v>6.11</v>
       </c>
       <c r="E61" s="3" t="inlineStr"/>
       <c r="F61" s="3">
@@ -3842,7 +3842,7 @@
         <v>225</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>13.1</v>
+        <v>13.33</v>
       </c>
       <c r="E62" s="3" t="inlineStr"/>
       <c r="F62" s="3">
@@ -3893,10 +3893,10 @@
         <v>46</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E63" s="3" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F63" s="3">
         <f>IF(B63:B271="common", 4, IF(B63:B271="uncommon", 3, IF(B63:B271="rare", 0.792892156862745, 1)))</f>
@@ -3949,7 +3949,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E64" s="3" t="n">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
       <c r="F64" s="3">
         <f>IF(B64:B272="common", 4, IF(B64:B272="uncommon", 3, IF(B64:B272="rare", 0.792892156862745, 1)))</f>
@@ -3999,10 +3999,10 @@
         <v>46</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E65" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F65" s="3">
         <f>IF(B65:B273="common", 4, IF(B65:B273="uncommon", 3, IF(B65:B273="rare", 0.792892156862745, 1)))</f>
@@ -4052,10 +4052,10 @@
         <v>33</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E66" s="3" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="F66" s="3">
         <f>IF(B66:B274="common", 4, IF(B66:B274="uncommon", 3, IF(B66:B274="rare", 0.792892156862745, 1)))</f>
@@ -4105,10 +4105,10 @@
         <v>21</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="E67" s="3" t="n">
-        <v>0.98</v>
+        <v>1.06</v>
       </c>
       <c r="F67" s="3">
         <f>IF(B67:B275="common", 4, IF(B67:B275="uncommon", 3, IF(B67:B275="rare", 0.792892156862745, 1)))</f>
@@ -4214,7 +4214,7 @@
         <v>0.26</v>
       </c>
       <c r="E69" s="3" t="n">
-        <v>1.96</v>
+        <v>1.74</v>
       </c>
       <c r="F69" s="3">
         <f>IF(B69:B277="common", 4, IF(B69:B277="uncommon", 3, IF(B69:B277="rare", 0.792892156862745, 1)))</f>
@@ -4264,10 +4264,10 @@
         <v>46</v>
       </c>
       <c r="D70" s="3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E70" s="3" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="F70" s="3">
         <f>IF(B70:B278="common", 4, IF(B70:B278="uncommon", 3, IF(B70:B278="rare", 0.792892156862745, 1)))</f>
@@ -4320,7 +4320,7 @@
         <v>0.11</v>
       </c>
       <c r="E71" s="3" t="n">
-        <v>0.82</v>
+        <v>0.71</v>
       </c>
       <c r="F71" s="3">
         <f>IF(B71:B279="common", 4, IF(B71:B279="uncommon", 3, IF(B71:B279="rare", 0.792892156862745, 1)))</f>
@@ -4370,7 +4370,7 @@
         <v>248</v>
       </c>
       <c r="D72" s="3" t="n">
-        <v>4.48</v>
+        <v>4.98</v>
       </c>
       <c r="E72" s="3" t="inlineStr"/>
       <c r="F72" s="3">
@@ -4421,7 +4421,7 @@
         <v>225</v>
       </c>
       <c r="D73" s="3" t="n">
-        <v>13.06</v>
+        <v>12.84</v>
       </c>
       <c r="E73" s="3" t="inlineStr"/>
       <c r="F73" s="3">
@@ -4472,10 +4472,10 @@
         <v>33</v>
       </c>
       <c r="D74" s="3" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E74" s="3" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="F74" s="3">
         <f>IF(B74:B282="common", 4, IF(B74:B282="uncommon", 3, IF(B74:B282="rare", 0.792892156862745, 1)))</f>
@@ -4528,7 +4528,7 @@
         <v>0.06</v>
       </c>
       <c r="E75" s="3" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="F75" s="3">
         <f>IF(B75:B283="common", 4, IF(B75:B283="uncommon", 3, IF(B75:B283="rare", 0.792892156862745, 1)))</f>
@@ -4578,10 +4578,10 @@
         <v>46</v>
       </c>
       <c r="D76" s="3" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E76" s="3" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F76" s="3">
         <f>IF(B76:B284="common", 4, IF(B76:B284="uncommon", 3, IF(B76:B284="rare", 0.792892156862745, 1)))</f>
@@ -4631,10 +4631,10 @@
         <v>33</v>
       </c>
       <c r="D77" s="3" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E77" s="3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F77" s="3">
         <f>IF(B77:B285="common", 4, IF(B77:B285="uncommon", 3, IF(B77:B285="rare", 0.792892156862745, 1)))</f>
@@ -4684,7 +4684,7 @@
         <v>90</v>
       </c>
       <c r="D78" s="3" t="n">
-        <v>0.64</v>
+        <v>0.73</v>
       </c>
       <c r="E78" s="3" t="inlineStr"/>
       <c r="F78" s="3">
@@ -4735,7 +4735,7 @@
         <v>248</v>
       </c>
       <c r="D79" s="3" t="n">
-        <v>4.9</v>
+        <v>4.22</v>
       </c>
       <c r="E79" s="3" t="inlineStr"/>
       <c r="F79" s="3">
@@ -4786,10 +4786,10 @@
         <v>33</v>
       </c>
       <c r="D80" s="3" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="E80" s="3" t="n">
-        <v>0.58</v>
+        <v>0.47</v>
       </c>
       <c r="F80" s="3">
         <f>IF(B80:B288="common", 4, IF(B80:B288="uncommon", 3, IF(B80:B288="rare", 0.792892156862745, 1)))</f>
@@ -4839,7 +4839,7 @@
         <v>33</v>
       </c>
       <c r="D81" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E81" s="3" t="n">
         <v>0.16</v>
@@ -4895,7 +4895,7 @@
         <v>0.06</v>
       </c>
       <c r="E82" s="3" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="F82" s="3">
         <f>IF(B82:B290="common", 4, IF(B82:B290="uncommon", 3, IF(B82:B290="rare", 0.792892156862745, 1)))</f>
@@ -4945,7 +4945,7 @@
         <v>46</v>
       </c>
       <c r="D83" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E83" s="3" t="n">
         <v>0.13</v>
@@ -4998,10 +4998,10 @@
         <v>21</v>
       </c>
       <c r="D84" s="3" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="E84" s="3" t="n">
-        <v>0.93</v>
+        <v>0.74</v>
       </c>
       <c r="F84" s="3">
         <f>IF(B84:B292="common", 4, IF(B84:B292="uncommon", 3, IF(B84:B292="rare", 0.792892156862745, 1)))</f>
@@ -5051,10 +5051,10 @@
         <v>33</v>
       </c>
       <c r="D85" s="3" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E85" s="3" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="F85" s="3">
         <f>IF(B85:B293="common", 4, IF(B85:B293="uncommon", 3, IF(B85:B293="rare", 0.792892156862745, 1)))</f>
@@ -5104,10 +5104,10 @@
         <v>33</v>
       </c>
       <c r="D86" s="3" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="E86" s="3" t="n">
-        <v>1.22</v>
+        <v>1.09</v>
       </c>
       <c r="F86" s="3">
         <f>IF(B86:B294="common", 4, IF(B86:B294="uncommon", 3, IF(B86:B294="rare", 0.792892156862745, 1)))</f>
@@ -5157,10 +5157,10 @@
         <v>33</v>
       </c>
       <c r="D87" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E87" s="3" t="n">
-        <v>1.27</v>
+        <v>1.02</v>
       </c>
       <c r="F87" s="3">
         <f>IF(B87:B295="common", 4, IF(B87:B295="uncommon", 3, IF(B87:B295="rare", 0.792892156862745, 1)))</f>
@@ -5210,10 +5210,10 @@
         <v>46</v>
       </c>
       <c r="D88" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E88" s="3" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="F88" s="3">
         <f>IF(B88:B296="common", 4, IF(B88:B296="uncommon", 3, IF(B88:B296="rare", 0.792892156862745, 1)))</f>
@@ -5263,10 +5263,10 @@
         <v>33</v>
       </c>
       <c r="D89" s="3" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="E89" s="3" t="n">
-        <v>0.98</v>
+        <v>1.06</v>
       </c>
       <c r="F89" s="3">
         <f>IF(B89:B297="common", 4, IF(B89:B297="uncommon", 3, IF(B89:B297="rare", 0.792892156862745, 1)))</f>
@@ -5316,10 +5316,10 @@
         <v>33</v>
       </c>
       <c r="D90" s="3" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="E90" s="3" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="F90" s="3">
         <f>IF(B90:B298="common", 4, IF(B90:B298="uncommon", 3, IF(B90:B298="rare", 0.792892156862745, 1)))</f>
@@ -5369,7 +5369,7 @@
         <v>188</v>
       </c>
       <c r="D91" s="3" t="n">
-        <v>27.56</v>
+        <v>27.4</v>
       </c>
       <c r="E91" s="3" t="inlineStr"/>
       <c r="F91" s="3">
@@ -5420,10 +5420,10 @@
         <v>46</v>
       </c>
       <c r="D92" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E92" s="3" t="n">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="F92" s="3">
         <f>IF(B92:B300="common", 4, IF(B92:B300="uncommon", 3, IF(B92:B300="rare", 0.792892156862745, 1)))</f>
@@ -5473,10 +5473,10 @@
         <v>21</v>
       </c>
       <c r="D93" s="3" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="E93" s="3" t="n">
-        <v>2.03</v>
+        <v>1.81</v>
       </c>
       <c r="F93" s="3">
         <f>IF(B93:B301="common", 4, IF(B93:B301="uncommon", 3, IF(B93:B301="rare", 0.792892156862745, 1)))</f>
@@ -5577,7 +5577,7 @@
         <v>248</v>
       </c>
       <c r="D95" s="3" t="n">
-        <v>4.2</v>
+        <v>4.03</v>
       </c>
       <c r="E95" s="3" t="inlineStr"/>
       <c r="F95" s="3">
@@ -5628,10 +5628,10 @@
         <v>33</v>
       </c>
       <c r="D96" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E96" s="3" t="n">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="F96" s="3">
         <f>IF(B96:B304="common", 4, IF(B96:B304="uncommon", 3, IF(B96:B304="rare", 0.792892156862745, 1)))</f>
@@ -5681,10 +5681,10 @@
         <v>21</v>
       </c>
       <c r="D97" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="E97" s="3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="F97" s="3">
         <f>IF(B97:B305="common", 4, IF(B97:B305="uncommon", 3, IF(B97:B305="rare", 0.792892156862745, 1)))</f>
@@ -5734,10 +5734,10 @@
         <v>33</v>
       </c>
       <c r="D98" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E98" s="3" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="F98" s="3">
         <f>IF(B98:B306="common", 4, IF(B98:B306="uncommon", 3, IF(B98:B306="rare", 0.792892156862745, 1)))</f>
@@ -5787,10 +5787,10 @@
         <v>46</v>
       </c>
       <c r="D99" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="E99" s="3" t="n">
-        <v>1.62</v>
+        <v>1.23</v>
       </c>
       <c r="F99" s="3">
         <f>IF(B99:B307="common", 4, IF(B99:B307="uncommon", 3, IF(B99:B307="rare", 0.792892156862745, 1)))</f>
@@ -5840,7 +5840,7 @@
         <v>90</v>
       </c>
       <c r="D100" s="3" t="n">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="E100" s="3" t="inlineStr"/>
       <c r="F100" s="3">
@@ -5891,7 +5891,7 @@
         <v>248</v>
       </c>
       <c r="D101" s="3" t="n">
-        <v>4.75</v>
+        <v>4.47</v>
       </c>
       <c r="E101" s="3" t="inlineStr"/>
       <c r="F101" s="3">
@@ -5942,10 +5942,10 @@
         <v>33</v>
       </c>
       <c r="D102" s="3" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E102" s="3" t="n">
-        <v>1.43</v>
+        <v>1.13</v>
       </c>
       <c r="F102" s="3">
         <f>IF(B102:B310="common", 4, IF(B102:B310="uncommon", 3, IF(B102:B310="rare", 0.792892156862745, 1)))</f>
@@ -5995,10 +5995,10 @@
         <v>46</v>
       </c>
       <c r="D103" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E103" s="3" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="F103" s="3">
         <f>IF(B103:B311="common", 4, IF(B103:B311="uncommon", 3, IF(B103:B311="rare", 0.792892156862745, 1)))</f>
@@ -6048,10 +6048,10 @@
         <v>46</v>
       </c>
       <c r="D104" s="3" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E104" s="3" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F104" s="3">
         <f>IF(B104:B312="common", 4, IF(B104:B312="uncommon", 3, IF(B104:B312="rare", 0.792892156862745, 1)))</f>
@@ -6101,10 +6101,10 @@
         <v>33</v>
       </c>
       <c r="D105" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E105" s="3" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="F105" s="3">
         <f>IF(B105:B313="common", 4, IF(B105:B313="uncommon", 3, IF(B105:B313="rare", 0.792892156862745, 1)))</f>
@@ -6154,10 +6154,10 @@
         <v>33</v>
       </c>
       <c r="D106" s="3" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="E106" s="3" t="n">
-        <v>0.51</v>
+        <v>0.46</v>
       </c>
       <c r="F106" s="3">
         <f>IF(B106:B314="common", 4, IF(B106:B314="uncommon", 3, IF(B106:B314="rare", 0.792892156862745, 1)))</f>
@@ -6207,10 +6207,10 @@
         <v>46</v>
       </c>
       <c r="D107" s="3" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="E107" s="3" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="F107" s="3">
         <f>IF(B107:B315="common", 4, IF(B107:B315="uncommon", 3, IF(B107:B315="rare", 0.792892156862745, 1)))</f>
@@ -6260,10 +6260,10 @@
         <v>21</v>
       </c>
       <c r="D108" s="3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="E108" s="3" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F108" s="3">
         <f>IF(B108:B316="common", 4, IF(B108:B316="uncommon", 3, IF(B108:B316="rare", 0.792892156862745, 1)))</f>
@@ -6316,7 +6316,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E109" s="3" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="F109" s="3">
         <f>IF(B109:B317="common", 4, IF(B109:B317="uncommon", 3, IF(B109:B317="rare", 0.792892156862745, 1)))</f>
@@ -6366,7 +6366,7 @@
         <v>188</v>
       </c>
       <c r="D110" s="3" t="n">
-        <v>10.21</v>
+        <v>9.27</v>
       </c>
       <c r="E110" s="3" t="inlineStr"/>
       <c r="F110" s="3">
@@ -6417,10 +6417,10 @@
         <v>46</v>
       </c>
       <c r="D111" s="3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E111" s="3" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F111" s="3">
         <f>IF(B111:B319="common", 4, IF(B111:B319="uncommon", 3, IF(B111:B319="rare", 0.792892156862745, 1)))</f>
@@ -6470,10 +6470,10 @@
         <v>46</v>
       </c>
       <c r="D112" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E112" s="3" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="F112" s="3">
         <f>IF(B112:B320="common", 4, IF(B112:B320="uncommon", 3, IF(B112:B320="rare", 0.792892156862745, 1)))</f>
@@ -6523,10 +6523,10 @@
         <v>46</v>
       </c>
       <c r="D113" s="3" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E113" s="3" t="n">
-        <v>0.93</v>
+        <v>0.73</v>
       </c>
       <c r="F113" s="3">
         <f>IF(B113:B321="common", 4, IF(B113:B321="uncommon", 3, IF(B113:B321="rare", 0.792892156862745, 1)))</f>
@@ -6576,10 +6576,10 @@
         <v>46</v>
       </c>
       <c r="D114" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E114" s="3" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="F114" s="3">
         <f>IF(B114:B322="common", 4, IF(B114:B322="uncommon", 3, IF(B114:B322="rare", 0.792892156862745, 1)))</f>
@@ -6632,7 +6632,7 @@
         <v>0.09</v>
       </c>
       <c r="E115" s="3" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="F115" s="3">
         <f>IF(B115:B323="common", 4, IF(B115:B323="uncommon", 3, IF(B115:B323="rare", 0.792892156862745, 1)))</f>
@@ -6682,7 +6682,7 @@
         <v>46</v>
       </c>
       <c r="D116" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E116" s="3" t="n">
         <v>0.13</v>
@@ -6735,10 +6735,10 @@
         <v>21</v>
       </c>
       <c r="D117" s="3" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="E117" s="3" t="n">
-        <v>0.61</v>
+        <v>0.49</v>
       </c>
       <c r="F117" s="3">
         <f>IF(B117:B325="common", 4, IF(B117:B325="uncommon", 3, IF(B117:B325="rare", 0.792892156862745, 1)))</f>
@@ -6788,10 +6788,10 @@
         <v>46</v>
       </c>
       <c r="D118" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E118" s="3" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="F118" s="3">
         <f>IF(B118:B326="common", 4, IF(B118:B326="uncommon", 3, IF(B118:B326="rare", 0.792892156862745, 1)))</f>
@@ -6844,7 +6844,7 @@
         <v>0.1</v>
       </c>
       <c r="E119" s="3" t="n">
-        <v>2.39</v>
+        <v>1.95</v>
       </c>
       <c r="F119" s="3">
         <f>IF(B119:B327="common", 4, IF(B119:B327="uncommon", 3, IF(B119:B327="rare", 0.792892156862745, 1)))</f>
@@ -6894,7 +6894,7 @@
         <v>90</v>
       </c>
       <c r="D120" s="3" t="n">
-        <v>6.59</v>
+        <v>6.97</v>
       </c>
       <c r="E120" s="3" t="inlineStr"/>
       <c r="F120" s="3">
@@ -6945,7 +6945,7 @@
         <v>248</v>
       </c>
       <c r="D121" s="3" t="n">
-        <v>17.23</v>
+        <v>15.92</v>
       </c>
       <c r="E121" s="3" t="inlineStr"/>
       <c r="F121" s="3">
@@ -6996,7 +6996,7 @@
         <v>154</v>
       </c>
       <c r="D122" s="3" t="n">
-        <v>11.79</v>
+        <v>12.54</v>
       </c>
       <c r="E122" s="3" t="inlineStr"/>
       <c r="F122" s="3">
@@ -7047,7 +7047,7 @@
         <v>90</v>
       </c>
       <c r="D123" s="3" t="n">
-        <v>9.19</v>
+        <v>9.23</v>
       </c>
       <c r="E123" s="3" t="inlineStr"/>
       <c r="F123" s="3">
@@ -7098,10 +7098,10 @@
         <v>21</v>
       </c>
       <c r="D124" s="3" t="n">
-        <v>0.7</v>
+        <v>0.44</v>
       </c>
       <c r="E124" s="3" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="F124" s="3">
         <f>IF(B124:B332="common", 4, IF(B124:B332="uncommon", 3, IF(B124:B332="rare", 0.792892156862745, 1)))</f>
@@ -7151,10 +7151,10 @@
         <v>21</v>
       </c>
       <c r="D125" s="3" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="E125" s="3" t="n">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="F125" s="3">
         <f>IF(B125:B333="common", 4, IF(B125:B333="uncommon", 3, IF(B125:B333="rare", 0.792892156862745, 1)))</f>
@@ -7207,7 +7207,7 @@
         <v>0.12</v>
       </c>
       <c r="E126" s="3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="F126" s="3">
         <f>IF(B126:B334="common", 4, IF(B126:B334="uncommon", 3, IF(B126:B334="rare", 0.792892156862745, 1)))</f>
@@ -7257,7 +7257,7 @@
         <v>188</v>
       </c>
       <c r="D127" s="3" t="n">
-        <v>5.61</v>
+        <v>4.38</v>
       </c>
       <c r="E127" s="3" t="inlineStr"/>
       <c r="F127" s="3">
@@ -7308,10 +7308,10 @@
         <v>33</v>
       </c>
       <c r="D128" s="3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E128" s="3" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="F128" s="3">
         <f>IF(B128:B336="common", 4, IF(B128:B336="uncommon", 3, IF(B128:B336="rare", 0.792892156862745, 1)))</f>
@@ -7364,7 +7364,7 @@
         <v>0.14</v>
       </c>
       <c r="E129" s="3" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="F129" s="3">
         <f>IF(B129:B337="common", 4, IF(B129:B337="uncommon", 3, IF(B129:B337="rare", 0.792892156862745, 1)))</f>
@@ -7414,7 +7414,7 @@
         <v>188</v>
       </c>
       <c r="D130" s="3" t="n">
-        <v>8.779999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E130" s="3" t="inlineStr"/>
       <c r="F130" s="3">
@@ -7465,10 +7465,10 @@
         <v>33</v>
       </c>
       <c r="D131" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E131" s="3" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="F131" s="3">
         <f>IF(B131:B339="common", 4, IF(B131:B339="uncommon", 3, IF(B131:B339="rare", 0.792892156862745, 1)))</f>
@@ -7518,10 +7518,10 @@
         <v>46</v>
       </c>
       <c r="D132" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E132" s="3" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="F132" s="3">
         <f>IF(B132:B340="common", 4, IF(B132:B340="uncommon", 3, IF(B132:B340="rare", 0.792892156862745, 1)))</f>
@@ -7571,10 +7571,10 @@
         <v>46</v>
       </c>
       <c r="D133" s="3" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E133" s="3" t="n">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="F133" s="3">
         <f>IF(B133:B341="common", 4, IF(B133:B341="uncommon", 3, IF(B133:B341="rare", 0.792892156862745, 1)))</f>
@@ -7624,10 +7624,10 @@
         <v>33</v>
       </c>
       <c r="D134" s="3" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E134" s="3" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="F134" s="3">
         <f>IF(B134:B342="common", 4, IF(B134:B342="uncommon", 3, IF(B134:B342="rare", 0.792892156862745, 1)))</f>
@@ -7677,10 +7677,10 @@
         <v>33</v>
       </c>
       <c r="D135" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E135" s="3" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="F135" s="3">
         <f>IF(B135:B343="common", 4, IF(B135:B343="uncommon", 3, IF(B135:B343="rare", 0.792892156862745, 1)))</f>
@@ -7730,7 +7730,7 @@
         <v>90</v>
       </c>
       <c r="D136" s="3" t="n">
-        <v>1.05</v>
+        <v>0.93</v>
       </c>
       <c r="E136" s="3" t="inlineStr"/>
       <c r="F136" s="3">
@@ -7781,7 +7781,7 @@
         <v>248</v>
       </c>
       <c r="D137" s="3" t="n">
-        <v>7.28</v>
+        <v>6.8</v>
       </c>
       <c r="E137" s="3" t="inlineStr"/>
       <c r="F137" s="3">
@@ -7832,10 +7832,10 @@
         <v>46</v>
       </c>
       <c r="D138" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E138" s="3" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F138" s="3">
         <f>IF(B138:B346="common", 4, IF(B138:B346="uncommon", 3, IF(B138:B346="rare", 0.792892156862745, 1)))</f>
@@ -7885,10 +7885,10 @@
         <v>33</v>
       </c>
       <c r="D139" s="3" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E139" s="3" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="F139" s="3">
         <f>IF(B139:B347="common", 4, IF(B139:B347="uncommon", 3, IF(B139:B347="rare", 0.792892156862745, 1)))</f>
@@ -7938,7 +7938,7 @@
         <v>188</v>
       </c>
       <c r="D140" s="3" t="n">
-        <v>5.69</v>
+        <v>6.3</v>
       </c>
       <c r="E140" s="3" t="inlineStr"/>
       <c r="F140" s="3">
@@ -7989,10 +7989,10 @@
         <v>21</v>
       </c>
       <c r="D141" s="3" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="E141" s="3" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="F141" s="3">
         <f>IF(B141:B349="common", 4, IF(B141:B349="uncommon", 3, IF(B141:B349="rare", 0.792892156862745, 1)))</f>
@@ -8042,10 +8042,10 @@
         <v>33</v>
       </c>
       <c r="D142" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E142" s="3" t="n">
-        <v>1.42</v>
+        <v>1.2</v>
       </c>
       <c r="F142" s="3">
         <f>IF(B142:B350="common", 4, IF(B142:B350="uncommon", 3, IF(B142:B350="rare", 0.792892156862745, 1)))</f>
@@ -8098,7 +8098,7 @@
         <v>0.06</v>
       </c>
       <c r="E143" s="3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F143" s="3">
         <f>IF(B143:B351="common", 4, IF(B143:B351="uncommon", 3, IF(B143:B351="rare", 0.792892156862745, 1)))</f>
@@ -8148,10 +8148,10 @@
         <v>33</v>
       </c>
       <c r="D144" s="3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E144" s="3" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="F144" s="3">
         <f>IF(B144:B352="common", 4, IF(B144:B352="uncommon", 3, IF(B144:B352="rare", 0.792892156862745, 1)))</f>
@@ -8201,10 +8201,10 @@
         <v>33</v>
       </c>
       <c r="D145" s="3" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E145" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F145" s="3">
         <f>IF(B145:B353="common", 4, IF(B145:B353="uncommon", 3, IF(B145:B353="rare", 0.792892156862745, 1)))</f>
@@ -8257,7 +8257,7 @@
         <v>0.08</v>
       </c>
       <c r="E146" s="3" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="F146" s="3">
         <f>IF(B146:B354="common", 4, IF(B146:B354="uncommon", 3, IF(B146:B354="rare", 0.792892156862745, 1)))</f>
@@ -8307,10 +8307,10 @@
         <v>46</v>
       </c>
       <c r="D147" s="3" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="E147" s="3" t="n">
-        <v>2.42</v>
+        <v>2.53</v>
       </c>
       <c r="F147" s="3">
         <f>IF(B147:B355="common", 4, IF(B147:B355="uncommon", 3, IF(B147:B355="rare", 0.792892156862745, 1)))</f>
@@ -8363,7 +8363,7 @@
         <v>0.1</v>
       </c>
       <c r="E148" s="3" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="F148" s="3">
         <f>IF(B148:B356="common", 4, IF(B148:B356="uncommon", 3, IF(B148:B356="rare", 0.792892156862745, 1)))</f>
@@ -8413,10 +8413,10 @@
         <v>46</v>
       </c>
       <c r="D149" s="3" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E149" s="3" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="F149" s="3">
         <f>IF(B149:B357="common", 4, IF(B149:B357="uncommon", 3, IF(B149:B357="rare", 0.792892156862745, 1)))</f>
@@ -8466,7 +8466,7 @@
         <v>188</v>
       </c>
       <c r="D150" s="3" t="n">
-        <v>25.64</v>
+        <v>25.17</v>
       </c>
       <c r="E150" s="3" t="inlineStr"/>
       <c r="F150" s="3">
@@ -8517,10 +8517,10 @@
         <v>33</v>
       </c>
       <c r="D151" s="3" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="E151" s="3" t="n">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="F151" s="3">
         <f>IF(B151:B359="common", 4, IF(B151:B359="uncommon", 3, IF(B151:B359="rare", 0.792892156862745, 1)))</f>
@@ -8570,10 +8570,10 @@
         <v>46</v>
       </c>
       <c r="D152" s="3" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E152" s="3" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="F152" s="3">
         <f>IF(B152:B360="common", 4, IF(B152:B360="uncommon", 3, IF(B152:B360="rare", 0.792892156862745, 1)))</f>
@@ -8626,7 +8626,7 @@
         <v>0.12</v>
       </c>
       <c r="E153" s="3" t="n">
-        <v>1.61</v>
+        <v>1.17</v>
       </c>
       <c r="F153" s="3">
         <f>IF(B153:B361="common", 4, IF(B153:B361="uncommon", 3, IF(B153:B361="rare", 0.792892156862745, 1)))</f>
@@ -8676,7 +8676,7 @@
         <v>188</v>
       </c>
       <c r="D154" s="3" t="n">
-        <v>17.12</v>
+        <v>16.25</v>
       </c>
       <c r="E154" s="3" t="inlineStr"/>
       <c r="F154" s="3">
@@ -8730,7 +8730,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E155" s="3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F155" s="3">
         <f>IF(B155:B363="common", 4, IF(B155:B363="uncommon", 3, IF(B155:B363="rare", 0.792892156862745, 1)))</f>
@@ -8783,7 +8783,7 @@
         <v>0.06</v>
       </c>
       <c r="E156" s="3" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="F156" s="3">
         <f>IF(B156:B364="common", 4, IF(B156:B364="uncommon", 3, IF(B156:B364="rare", 0.792892156862745, 1)))</f>
@@ -8833,10 +8833,10 @@
         <v>46</v>
       </c>
       <c r="D157" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E157" s="3" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F157" s="3">
         <f>IF(B157:B365="common", 4, IF(B157:B365="uncommon", 3, IF(B157:B365="rare", 0.792892156862745, 1)))</f>
@@ -8886,10 +8886,10 @@
         <v>33</v>
       </c>
       <c r="D158" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E158" s="3" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="F158" s="3">
         <f>IF(B158:B366="common", 4, IF(B158:B366="uncommon", 3, IF(B158:B366="rare", 0.792892156862745, 1)))</f>
@@ -8942,7 +8942,7 @@
         <v>0.13</v>
       </c>
       <c r="E159" s="3" t="n">
-        <v>0.79</v>
+        <v>0.71</v>
       </c>
       <c r="F159" s="3">
         <f>IF(B159:B367="common", 4, IF(B159:B367="uncommon", 3, IF(B159:B367="rare", 0.792892156862745, 1)))</f>
@@ -8992,10 +8992,10 @@
         <v>46</v>
       </c>
       <c r="D160" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E160" s="3" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="F160" s="3">
         <f>IF(B160:B368="common", 4, IF(B160:B368="uncommon", 3, IF(B160:B368="rare", 0.792892156862745, 1)))</f>
@@ -9045,7 +9045,7 @@
         <v>188</v>
       </c>
       <c r="D161" s="3" t="n">
-        <v>19.17</v>
+        <v>19.27</v>
       </c>
       <c r="E161" s="3" t="inlineStr"/>
       <c r="F161" s="3">
@@ -9096,10 +9096,10 @@
         <v>21</v>
       </c>
       <c r="D162" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E162" s="3" t="n">
-        <v>1.23</v>
+        <v>0.95</v>
       </c>
       <c r="F162" s="3">
         <f>IF(B162:B370="common", 4, IF(B162:B370="uncommon", 3, IF(B162:B370="rare", 0.792892156862745, 1)))</f>
@@ -9149,10 +9149,10 @@
         <v>33</v>
       </c>
       <c r="D163" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E163" s="3" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="F163" s="3">
         <f>IF(B163:B371="common", 4, IF(B163:B371="uncommon", 3, IF(B163:B371="rare", 0.792892156862745, 1)))</f>
@@ -9202,10 +9202,10 @@
         <v>33</v>
       </c>
       <c r="D164" s="3" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="E164" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F164" s="3">
         <f>IF(B164:B372="common", 4, IF(B164:B372="uncommon", 3, IF(B164:B372="rare", 0.792892156862745, 1)))</f>
@@ -9255,7 +9255,7 @@
         <v>46</v>
       </c>
       <c r="D165" s="3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E165" s="3" t="n">
         <v>0.16</v>
@@ -9308,10 +9308,10 @@
         <v>33</v>
       </c>
       <c r="D166" s="3" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E166" s="3" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="F166" s="3">
         <f>IF(B166:B374="common", 4, IF(B166:B374="uncommon", 3, IF(B166:B374="rare", 0.792892156862745, 1)))</f>
@@ -9361,10 +9361,10 @@
         <v>46</v>
       </c>
       <c r="D167" s="3" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E167" s="3" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F167" s="3">
         <f>IF(B167:B375="common", 4, IF(B167:B375="uncommon", 3, IF(B167:B375="rare", 0.792892156862745, 1)))</f>
@@ -9414,10 +9414,10 @@
         <v>33</v>
       </c>
       <c r="D168" s="3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="E168" s="3" t="n">
-        <v>0.89</v>
+        <v>0.79</v>
       </c>
       <c r="F168" s="3">
         <f>IF(B168:B376="common", 4, IF(B168:B376="uncommon", 3, IF(B168:B376="rare", 0.792892156862745, 1)))</f>
@@ -9467,10 +9467,10 @@
         <v>46</v>
       </c>
       <c r="D169" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E169" s="3" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="F169" s="3">
         <f>IF(B169:B377="common", 4, IF(B169:B377="uncommon", 3, IF(B169:B377="rare", 0.792892156862745, 1)))</f>
@@ -9520,10 +9520,10 @@
         <v>33</v>
       </c>
       <c r="D170" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E170" s="3" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F170" s="3">
         <f>IF(B170:B378="common", 4, IF(B170:B378="uncommon", 3, IF(B170:B378="rare", 0.792892156862745, 1)))</f>
@@ -9573,10 +9573,10 @@
         <v>33</v>
       </c>
       <c r="D171" s="3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E171" s="3" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="F171" s="3">
         <f>IF(B171:B379="common", 4, IF(B171:B379="uncommon", 3, IF(B171:B379="rare", 0.792892156862745, 1)))</f>
@@ -9629,7 +9629,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E172" s="3" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="F172" s="3">
         <f>IF(B172:B380="common", 4, IF(B172:B380="uncommon", 3, IF(B172:B380="rare", 0.792892156862745, 1)))</f>
@@ -9679,10 +9679,10 @@
         <v>33</v>
       </c>
       <c r="D173" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E173" s="3" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F173" s="3">
         <f>IF(B173:B381="common", 4, IF(B173:B381="uncommon", 3, IF(B173:B381="rare", 0.792892156862745, 1)))</f>
@@ -9732,10 +9732,10 @@
         <v>46</v>
       </c>
       <c r="D174" s="3" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E174" s="3" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="F174" s="3">
         <f>IF(B174:B382="common", 4, IF(B174:B382="uncommon", 3, IF(B174:B382="rare", 0.792892156862745, 1)))</f>
@@ -9785,10 +9785,10 @@
         <v>46</v>
       </c>
       <c r="D175" s="3" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="E175" s="3" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="F175" s="3">
         <f>IF(B175:B383="common", 4, IF(B175:B383="uncommon", 3, IF(B175:B383="rare", 0.792892156862745, 1)))</f>
@@ -9838,10 +9838,10 @@
         <v>33</v>
       </c>
       <c r="D176" s="3" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E176" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="F176" s="3">
         <f>IF(B176:B384="common", 4, IF(B176:B384="uncommon", 3, IF(B176:B384="rare", 0.792892156862745, 1)))</f>
@@ -9891,10 +9891,10 @@
         <v>46</v>
       </c>
       <c r="D177" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E177" s="3" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="F177" s="3">
         <f>IF(B177:B385="common", 4, IF(B177:B385="uncommon", 3, IF(B177:B385="rare", 0.792892156862745, 1)))</f>
@@ -9944,10 +9944,10 @@
         <v>33</v>
       </c>
       <c r="D178" s="3" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E178" s="3" t="n">
-        <v>1.08</v>
+        <v>1.35</v>
       </c>
       <c r="F178" s="3">
         <f>IF(B178:B386="common", 4, IF(B178:B386="uncommon", 3, IF(B178:B386="rare", 0.792892156862745, 1)))</f>
@@ -10000,7 +10000,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E179" s="3" t="n">
-        <v>1.09</v>
+        <v>0.75</v>
       </c>
       <c r="F179" s="3">
         <f>IF(B179:B387="common", 4, IF(B179:B387="uncommon", 3, IF(B179:B387="rare", 0.792892156862745, 1)))</f>
@@ -10050,10 +10050,10 @@
         <v>46</v>
       </c>
       <c r="D180" s="3" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E180" s="3" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="F180" s="3">
         <f>IF(B180:B388="common", 4, IF(B180:B388="uncommon", 3, IF(B180:B388="rare", 0.792892156862745, 1)))</f>
@@ -10103,7 +10103,7 @@
         <v>188</v>
       </c>
       <c r="D181" s="3" t="n">
-        <v>38.24</v>
+        <v>38.4</v>
       </c>
       <c r="E181" s="3" t="inlineStr"/>
       <c r="F181" s="3">
@@ -10154,10 +10154,10 @@
         <v>21</v>
       </c>
       <c r="D182" s="3" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="E182" s="3" t="n">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
       <c r="F182" s="3">
         <f>IF(B182:B390="common", 4, IF(B182:B390="uncommon", 3, IF(B182:B390="rare", 0.792892156862745, 1)))</f>
@@ -10210,7 +10210,7 @@
         <v>0.06</v>
       </c>
       <c r="E183" s="3" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="F183" s="3">
         <f>IF(B183:B391="common", 4, IF(B183:B391="uncommon", 3, IF(B183:B391="rare", 0.792892156862745, 1)))</f>
@@ -10260,7 +10260,7 @@
         <v>154</v>
       </c>
       <c r="D184" s="3" t="n">
-        <v>2.12</v>
+        <v>1.89</v>
       </c>
       <c r="E184" s="3" t="inlineStr"/>
       <c r="F184" s="3">
@@ -10311,10 +10311,10 @@
         <v>46</v>
       </c>
       <c r="D185" s="3" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E185" s="3" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="F185" s="3">
         <f>IF(B185:B393="common", 4, IF(B185:B393="uncommon", 3, IF(B185:B393="rare", 0.792892156862745, 1)))</f>
@@ -10364,7 +10364,7 @@
         <v>188</v>
       </c>
       <c r="D186" s="3" t="n">
-        <v>6.86</v>
+        <v>5.84</v>
       </c>
       <c r="E186" s="3" t="inlineStr"/>
       <c r="F186" s="3">
@@ -10415,10 +10415,10 @@
         <v>33</v>
       </c>
       <c r="D187" s="3" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E187" s="3" t="n">
-        <v>0.79</v>
+        <v>0.63</v>
       </c>
       <c r="F187" s="3">
         <f>IF(B187:B395="common", 4, IF(B187:B395="uncommon", 3, IF(B187:B395="rare", 0.792892156862745, 1)))</f>
@@ -10468,10 +10468,10 @@
         <v>46</v>
       </c>
       <c r="D188" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E188" s="3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F188" s="3">
         <f>IF(B188:B396="common", 4, IF(B188:B396="uncommon", 3, IF(B188:B396="rare", 0.792892156862745, 1)))</f>
@@ -10521,10 +10521,10 @@
         <v>33</v>
       </c>
       <c r="D189" s="3" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="E189" s="3" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="F189" s="3">
         <f>IF(B189:B397="common", 4, IF(B189:B397="uncommon", 3, IF(B189:B397="rare", 0.792892156862745, 1)))</f>
@@ -10574,10 +10574,10 @@
         <v>21</v>
       </c>
       <c r="D190" s="3" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="E190" s="3" t="n">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="F190" s="3">
         <f>IF(B190:B398="common", 4, IF(B190:B398="uncommon", 3, IF(B190:B398="rare", 0.792892156862745, 1)))</f>
@@ -10627,10 +10627,10 @@
         <v>33</v>
       </c>
       <c r="D191" s="3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E191" s="3" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="F191" s="3">
         <f>IF(B191:B399="common", 4, IF(B191:B399="uncommon", 3, IF(B191:B399="rare", 0.792892156862745, 1)))</f>
@@ -10680,10 +10680,10 @@
         <v>46</v>
       </c>
       <c r="D192" s="3" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="E192" s="3" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="F192" s="3">
         <f>IF(B192:B400="common", 4, IF(B192:B400="uncommon", 3, IF(B192:B400="rare", 0.792892156862745, 1)))</f>
@@ -10733,7 +10733,7 @@
         <v>90</v>
       </c>
       <c r="D193" s="3" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="E193" s="3" t="inlineStr"/>
       <c r="F193" s="3">
@@ -10784,7 +10784,7 @@
         <v>248</v>
       </c>
       <c r="D194" s="3" t="n">
-        <v>9.59</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="E194" s="3" t="inlineStr"/>
       <c r="F194" s="3">
@@ -10835,7 +10835,7 @@
         <v>225</v>
       </c>
       <c r="D195" s="3" t="n">
-        <v>58.02</v>
+        <v>60.27</v>
       </c>
       <c r="E195" s="3" t="inlineStr"/>
       <c r="F195" s="3">
@@ -10889,7 +10889,7 @@
         <v>0.08</v>
       </c>
       <c r="E196" s="3" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="F196" s="3">
         <f>IF(B196:B404="common", 4, IF(B196:B404="uncommon", 3, IF(B196:B404="rare", 0.792892156862745, 1)))</f>
@@ -10939,10 +10939,10 @@
         <v>21</v>
       </c>
       <c r="D197" s="3" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="E197" s="3" t="n">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="F197" s="3">
         <f>IF(B197:B405="common", 4, IF(B197:B405="uncommon", 3, IF(B197:B405="rare", 0.792892156862745, 1)))</f>
@@ -10992,7 +10992,7 @@
         <v>46</v>
       </c>
       <c r="D198" s="3" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E198" s="3" t="n">
         <v>0.13</v>
@@ -11045,10 +11045,10 @@
         <v>46</v>
       </c>
       <c r="D199" s="3" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E199" s="3" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="F199" s="3">
         <f>IF(B199:B407="common", 4, IF(B199:B407="uncommon", 3, IF(B199:B407="rare", 0.792892156862745, 1)))</f>
@@ -11101,7 +11101,7 @@
         <v>0.11</v>
       </c>
       <c r="E200" s="3" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="F200" s="3">
         <f>IF(B200:B408="common", 4, IF(B200:B408="uncommon", 3, IF(B200:B408="rare", 0.792892156862745, 1)))</f>
@@ -11151,7 +11151,7 @@
         <v>188</v>
       </c>
       <c r="D201" s="3" t="n">
-        <v>23.62</v>
+        <v>26.46</v>
       </c>
       <c r="E201" s="3" t="inlineStr"/>
       <c r="F201" s="3">
@@ -11202,10 +11202,10 @@
         <v>46</v>
       </c>
       <c r="D202" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E202" s="3" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F202" s="3">
         <f>IF(B202:B410="common", 4, IF(B202:B410="uncommon", 3, IF(B202:B410="rare", 0.792892156862745, 1)))</f>
@@ -11255,10 +11255,10 @@
         <v>46</v>
       </c>
       <c r="D203" s="3" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E203" s="3" t="n">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="F203" s="3">
         <f>IF(B203:B411="common", 4, IF(B203:B411="uncommon", 3, IF(B203:B411="rare", 0.792892156862745, 1)))</f>
@@ -11308,10 +11308,10 @@
         <v>21</v>
       </c>
       <c r="D204" s="3" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="E204" s="3" t="n">
-        <v>0.72</v>
+        <v>0.59</v>
       </c>
       <c r="F204" s="3">
         <f>IF(B204:B412="common", 4, IF(B204:B412="uncommon", 3, IF(B204:B412="rare", 0.792892156862745, 1)))</f>
@@ -11361,7 +11361,7 @@
         <v>90</v>
       </c>
       <c r="D205" s="3" t="n">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="E205" s="3" t="inlineStr"/>
       <c r="F205" s="3">
@@ -11412,7 +11412,7 @@
         <v>248</v>
       </c>
       <c r="D206" s="3" t="n">
-        <v>6.01</v>
+        <v>5.62</v>
       </c>
       <c r="E206" s="3" t="inlineStr"/>
       <c r="F206" s="3">
@@ -11463,7 +11463,7 @@
         <v>90</v>
       </c>
       <c r="D207" s="3" t="n">
-        <v>0.68</v>
+        <v>0.88</v>
       </c>
       <c r="E207" s="3" t="inlineStr"/>
       <c r="F207" s="3">
@@ -11514,7 +11514,7 @@
         <v>248</v>
       </c>
       <c r="D208" s="3" t="n">
-        <v>7.19</v>
+        <v>7.21</v>
       </c>
       <c r="E208" s="3" t="inlineStr"/>
       <c r="F208" s="3">
@@ -11565,7 +11565,7 @@
         <v>225</v>
       </c>
       <c r="D209" s="3" t="n">
-        <v>47.43</v>
+        <v>47.89</v>
       </c>
       <c r="E209" s="3" t="inlineStr"/>
       <c r="F209" s="3">
@@ -11616,10 +11616,10 @@
         <v>46</v>
       </c>
       <c r="D210" s="3" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="E210" s="3" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F210" s="3">
         <f>IF(B210:B418="common", 4, IF(B210:B418="uncommon", 3, IF(B210:B418="rare", 0.792892156862745, 1)))</f>
@@ -18308,7 +18308,7 @@
         </is>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.3956521739130435</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="3">
@@ -18318,7 +18318,7 @@
         </is>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.4836363636363635</v>
+        <v>0.5063636363636361</v>
       </c>
     </row>
     <row r="4">
@@ -18328,7 +18328,7 @@
         </is>
       </c>
       <c r="B4" s="13" t="n">
-        <v>0.1940697945845005</v>
+        <v>0.1842530345471522</v>
       </c>
     </row>
     <row r="5">
@@ -18338,7 +18338,7 @@
         </is>
       </c>
       <c r="B5" s="13" t="n">
-        <v>5.106821201141853</v>
+        <v>4.702585099833741</v>
       </c>
     </row>
     <row r="6">
@@ -18378,7 +18378,7 @@
         </is>
       </c>
       <c r="B9" s="13" t="n">
-        <v>1.732659574468085</v>
+        <v>1.735425531914894</v>
       </c>
     </row>
     <row r="10">
@@ -18388,7 +18388,7 @@
         </is>
       </c>
       <c r="B10" s="13" t="n">
-        <v>1.924355555555556</v>
+        <v>1.933155555555556</v>
       </c>
     </row>
     <row r="11">
@@ -18398,7 +18398,7 @@
         </is>
       </c>
       <c r="B11" s="13" t="n">
-        <v>0.3109999999999999</v>
+        <v>0.3202222222222222</v>
       </c>
     </row>
     <row r="12">
@@ -18408,7 +18408,7 @@
         </is>
       </c>
       <c r="B12" s="13" t="n">
-        <v>0.1167532467532467</v>
+        <v>0.1171428571428571</v>
       </c>
     </row>
     <row r="13">
@@ -18418,7 +18418,7 @@
         </is>
       </c>
       <c r="B13" s="13" t="n">
-        <v>0.517983870967742</v>
+        <v>0.4958870967741935</v>
       </c>
     </row>
     <row r="14">
@@ -18448,7 +18448,7 @@
         </is>
       </c>
       <c r="B16" s="13" t="n">
-        <v>4.602752247744629</v>
+        <v>4.601833263609723</v>
       </c>
     </row>
     <row r="17">
@@ -18458,7 +18458,7 @@
         </is>
       </c>
       <c r="B17" s="13" t="n">
-        <v>10.78293178102039</v>
+        <v>10.41503503435425</v>
       </c>
     </row>
     <row r="18">
@@ -18468,7 +18468,7 @@
         </is>
       </c>
       <c r="B18" s="13" t="n">
-        <v>0.7929317810203909</v>
+        <v>0.1050350343542501</v>
       </c>
     </row>
     <row r="19">
@@ -18478,7 +18478,7 @@
         </is>
       </c>
       <c r="B19" s="14" t="n">
-        <v>1.079372550652692</v>
+        <v>1.010187685194399</v>
       </c>
     </row>
     <row r="20">
@@ -18488,7 +18488,7 @@
         </is>
       </c>
       <c r="B20" s="15" t="n">
-        <v>0.07937255065269189</v>
+        <v>0.01018768519439872</v>
       </c>
     </row>
     <row r="21">

--- a/excelDocs/scarletAndViolet151/pokemon_data.xlsx
+++ b/excelDocs/scarletAndViolet151/pokemon_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EVRCalculator\excelDocs\scarletAndViolet151\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6A47B9-705C-4B40-AAD0-B34C7560F1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4908A4B-A8B5-4EC8-A869-F562AE649E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1290" yWindow="1605" windowWidth="25260" windowHeight="11385" tabRatio="797" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1265,7 +1265,7 @@
   <dimension ref="A1:AY1263"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/excelDocs/scarletAndViolet151/pokemon_data.xlsx
+++ b/excelDocs/scarletAndViolet151/pokemon_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2370" yWindow="2985" windowWidth="25260" windowHeight="11385" tabRatio="797" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-25665" yWindow="2085" windowWidth="25260" windowHeight="11880" tabRatio="797" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,9 +18,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <name val="Calibri"/>
@@ -141,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -170,22 +168,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -555,13 +541,13 @@
   </sheetPr>
   <dimension ref="A1:AY1263"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="39.6" customWidth="1" min="1" max="1"/>
+    <col width="39.5703125" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
@@ -573,8 +559,8 @@
     <col width="24" customWidth="1" min="10" max="10"/>
     <col width="15" customWidth="1" min="11" max="11"/>
     <col width="24" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="20.4" customWidth="1" min="13" max="13"/>
-    <col width="28.8" customWidth="1" min="14" max="14"/>
+    <col width="20.42578125" customWidth="1" min="13" max="13"/>
+    <col width="28.85546875" customWidth="1" min="14" max="14"/>
     <col width="13.85546875" customWidth="1" min="15" max="15"/>
     <col width="33.5703125" customWidth="1" min="16" max="16"/>
     <col width="26.85546875" customWidth="1" min="17" max="17"/>
@@ -587,7 +573,7 @@
     <col width="24" customWidth="1" min="48" max="48"/>
     <col width="20.42578125" customWidth="1" min="49" max="49"/>
     <col width="28.85546875" customWidth="1" min="50" max="50"/>
-    <col width="16.8" customWidth="1" min="51" max="51"/>
+    <col width="16.85546875" customWidth="1" min="51" max="51"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -856,7 +842,7 @@
       <c r="D4" s="3" t="n">
         <v>1.05</v>
       </c>
-      <c r="E4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="n"/>
       <c r="F4" s="3">
         <f>IF(B4="common", 4, IF(B4="uncommon", 3, IF(B4="rare", 0.73878, 1)))</f>
         <v/>
@@ -915,7 +901,7 @@
       <c r="D5" s="3" t="n">
         <v>7.73</v>
       </c>
-      <c r="E5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="n"/>
       <c r="F5" s="3">
         <f>IF(B5="common", 4, IF(B5="uncommon", 3, IF(B5="rare", 0.73878, 1)))</f>
         <v/>
@@ -974,7 +960,7 @@
       <c r="D6" s="3" t="n">
         <v>41.69</v>
       </c>
-      <c r="E6" s="3" t="inlineStr"/>
+      <c r="E6" s="3" t="n"/>
       <c r="F6" s="3">
         <f>IF(B6="common", 4, IF(B6="uncommon", 3, IF(B6="rare", 0.73878, 1)))</f>
         <v/>
@@ -1216,7 +1202,7 @@
       <c r="D10" s="3" t="n">
         <v>1.01</v>
       </c>
-      <c r="E10" s="3" t="inlineStr"/>
+      <c r="E10" s="3" t="n"/>
       <c r="F10" s="3">
         <f>IF(B10="common", 4, IF(B10="uncommon", 3, IF(B10="rare", 0.73878, 1)))</f>
         <v/>
@@ -1275,7 +1261,7 @@
       <c r="D11" s="3" t="n">
         <v>4.52</v>
       </c>
-      <c r="E11" s="3" t="inlineStr"/>
+      <c r="E11" s="3" t="n"/>
       <c r="F11" s="3">
         <f>IF(B11="common", 4, IF(B11="uncommon", 3, IF(B11="rare", 0.73878, 1)))</f>
         <v/>
@@ -1460,7 +1446,7 @@
       <c r="D14" s="3" t="n">
         <v>3.59</v>
       </c>
-      <c r="E14" s="3" t="inlineStr"/>
+      <c r="E14" s="3" t="n"/>
       <c r="F14" s="3">
         <f>IF(B14="common", 4, IF(B14="uncommon", 3, IF(B14="rare", 0.73878, 1)))</f>
         <v/>
@@ -1751,7 +1737,7 @@
       <c r="D19" s="3" t="n">
         <v>2.51</v>
       </c>
-      <c r="E19" s="3" t="inlineStr"/>
+      <c r="E19" s="3" t="n"/>
       <c r="F19" s="3">
         <f>IF(B19="common", 4, IF(B19="uncommon", 3, IF(B19="rare", 0.73878, 1)))</f>
         <v/>
@@ -1807,7 +1793,7 @@
       <c r="D20" s="3" t="n">
         <v>0.87</v>
       </c>
-      <c r="E20" s="3" t="inlineStr"/>
+      <c r="E20" s="3" t="n"/>
       <c r="F20" s="3">
         <f>IF(B20="common", 4, IF(B20="uncommon", 3, IF(B20="rare", 0.73878, 1)))</f>
         <v/>
@@ -1863,7 +1849,7 @@
       <c r="D21" s="3" t="n">
         <v>13.7</v>
       </c>
-      <c r="E21" s="3" t="inlineStr"/>
+      <c r="E21" s="3" t="n"/>
       <c r="F21" s="3">
         <f>IF(B21="common", 4, IF(B21="uncommon", 3, IF(B21="rare", 0.73878, 1)))</f>
         <v/>
@@ -1922,7 +1908,7 @@
       <c r="D22" s="3" t="n">
         <v>68.63</v>
       </c>
-      <c r="E22" s="3" t="inlineStr"/>
+      <c r="E22" s="3" t="n"/>
       <c r="F22" s="3">
         <f>IF(B22="common", 4, IF(B22="uncommon", 3, IF(B22="rare", 0.73878, 1)))</f>
         <v/>
@@ -2042,7 +2028,7 @@
       <c r="D24" s="3" t="n">
         <v>33.2</v>
       </c>
-      <c r="E24" s="3" t="inlineStr"/>
+      <c r="E24" s="3" t="n"/>
       <c r="F24" s="3">
         <f>IF(B24="common", 4, IF(B24="uncommon", 3, IF(B24="rare", 0.73878, 1)))</f>
         <v/>
@@ -2214,7 +2200,7 @@
       <c r="D27" s="3" t="n">
         <v>8.550000000000001</v>
       </c>
-      <c r="E27" s="3" t="inlineStr"/>
+      <c r="E27" s="3" t="n"/>
       <c r="F27" s="3">
         <f>IF(B27="common", 4, IF(B27="uncommon", 3, IF(B27="rare", 0.73878, 1)))</f>
         <v/>
@@ -2328,7 +2314,7 @@
       <c r="D29" s="3" t="n">
         <v>4.08</v>
       </c>
-      <c r="E29" s="3" t="inlineStr"/>
+      <c r="E29" s="3" t="n"/>
       <c r="F29" s="3">
         <f>IF(B29="common", 4, IF(B29="uncommon", 3, IF(B29="rare", 0.73878, 1)))</f>
         <v/>
@@ -2384,7 +2370,7 @@
       <c r="D30" s="3" t="n">
         <v>26.99</v>
       </c>
-      <c r="E30" s="3" t="inlineStr"/>
+      <c r="E30" s="3" t="n"/>
       <c r="F30" s="3">
         <f>IF(B30="common", 4, IF(B30="uncommon", 3, IF(B30="rare", 0.73878, 1)))</f>
         <v/>
@@ -2440,7 +2426,7 @@
       <c r="D31" s="3" t="n">
         <v>211.83</v>
       </c>
-      <c r="E31" s="3" t="inlineStr"/>
+      <c r="E31" s="3" t="n"/>
       <c r="F31" s="3">
         <f>IF(B31="common", 4, IF(B31="uncommon", 3, IF(B31="rare", 0.73878, 1)))</f>
         <v/>
@@ -2554,7 +2540,7 @@
       <c r="D33" s="3" t="n">
         <v>44.02</v>
       </c>
-      <c r="E33" s="3" t="inlineStr"/>
+      <c r="E33" s="3" t="n"/>
       <c r="F33" s="3">
         <f>IF(B33="common", 4, IF(B33="uncommon", 3, IF(B33="rare", 0.73878, 1)))</f>
         <v/>
@@ -2668,7 +2654,7 @@
       <c r="D35" s="3" t="n">
         <v>31.83</v>
       </c>
-      <c r="E35" s="3" t="inlineStr"/>
+      <c r="E35" s="3" t="n"/>
       <c r="F35" s="3">
         <f>IF(B35="common", 4, IF(B35="uncommon", 3, IF(B35="rare", 0.73878, 1)))</f>
         <v/>
@@ -3072,7 +3058,7 @@
       <c r="D42" s="3" t="n">
         <v>2.71</v>
       </c>
-      <c r="E42" s="3" t="inlineStr"/>
+      <c r="E42" s="3" t="n"/>
       <c r="F42" s="3">
         <f>IF(B42="common", 4, IF(B42="uncommon", 3, IF(B42="rare", 0.73878, 1)))</f>
         <v/>
@@ -3476,7 +3462,7 @@
       <c r="D49" s="3" t="n">
         <v>22.32</v>
       </c>
-      <c r="E49" s="3" t="inlineStr"/>
+      <c r="E49" s="3" t="n"/>
       <c r="F49" s="3">
         <f>IF(B49="common", 4, IF(B49="uncommon", 3, IF(B49="rare", 0.73878, 1)))</f>
         <v/>
@@ -4112,7 +4098,7 @@
       <c r="D60" s="3" t="n">
         <v>5.26</v>
       </c>
-      <c r="E60" s="3" t="inlineStr"/>
+      <c r="E60" s="3" t="n"/>
       <c r="F60" s="3">
         <f>IF(B60="common", 4, IF(B60="uncommon", 3, IF(B60="rare", 0.73878, 1)))</f>
         <v/>
@@ -4168,7 +4154,7 @@
       <c r="D61" s="3" t="n">
         <v>13.24</v>
       </c>
-      <c r="E61" s="3" t="inlineStr"/>
+      <c r="E61" s="3" t="n"/>
       <c r="F61" s="3">
         <f>IF(B61="common", 4, IF(B61="uncommon", 3, IF(B61="rare", 0.73878, 1)))</f>
         <v/>
@@ -4746,7 +4732,7 @@
       <c r="D71" s="3" t="n">
         <v>3.94</v>
       </c>
-      <c r="E71" s="3" t="inlineStr"/>
+      <c r="E71" s="3" t="n"/>
       <c r="F71" s="3">
         <f>IF(B71="common", 4, IF(B71="uncommon", 3, IF(B71="rare", 0.73878, 1)))</f>
         <v/>
@@ -4802,7 +4788,7 @@
       <c r="D72" s="3" t="n">
         <v>11.49</v>
       </c>
-      <c r="E72" s="3" t="inlineStr"/>
+      <c r="E72" s="3" t="n"/>
       <c r="F72" s="3">
         <f>IF(B72="common", 4, IF(B72="uncommon", 3, IF(B72="rare", 0.73878, 1)))</f>
         <v/>
@@ -5090,7 +5076,7 @@
       <c r="D77" s="3" t="n">
         <v>0.97</v>
       </c>
-      <c r="E77" s="3" t="inlineStr"/>
+      <c r="E77" s="3" t="n"/>
       <c r="F77" s="3">
         <f>IF(B77="common", 4, IF(B77="uncommon", 3, IF(B77="rare", 0.73878, 1)))</f>
         <v/>
@@ -5146,7 +5132,7 @@
       <c r="D78" s="3" t="n">
         <v>5.24</v>
       </c>
-      <c r="E78" s="3" t="inlineStr"/>
+      <c r="E78" s="3" t="n"/>
       <c r="F78" s="3">
         <f>IF(B78="common", 4, IF(B78="uncommon", 3, IF(B78="rare", 0.73878, 1)))</f>
         <v/>
@@ -5840,7 +5826,7 @@
       <c r="D90" s="3" t="n">
         <v>25.58</v>
       </c>
-      <c r="E90" s="3" t="inlineStr"/>
+      <c r="E90" s="3" t="n"/>
       <c r="F90" s="3">
         <f>IF(B90="common", 4, IF(B90="uncommon", 3, IF(B90="rare", 0.73878, 1)))</f>
         <v/>
@@ -6012,7 +5998,7 @@
       <c r="D93" s="3" t="n">
         <v>1.03</v>
       </c>
-      <c r="E93" s="3" t="inlineStr"/>
+      <c r="E93" s="3" t="n"/>
       <c r="F93" s="3">
         <f>IF(B93="common", 4, IF(B93="uncommon", 3, IF(B93="rare", 0.73878, 1)))</f>
         <v/>
@@ -6068,7 +6054,7 @@
       <c r="D94" s="3" t="n">
         <v>4.23</v>
       </c>
-      <c r="E94" s="3" t="inlineStr"/>
+      <c r="E94" s="3" t="n"/>
       <c r="F94" s="3">
         <f>IF(B94="common", 4, IF(B94="uncommon", 3, IF(B94="rare", 0.73878, 1)))</f>
         <v/>
@@ -6356,7 +6342,7 @@
       <c r="D99" s="3" t="n">
         <v>0.8</v>
       </c>
-      <c r="E99" s="3" t="inlineStr"/>
+      <c r="E99" s="3" t="n"/>
       <c r="F99" s="3">
         <f>IF(B99="common", 4, IF(B99="uncommon", 3, IF(B99="rare", 0.73878, 1)))</f>
         <v/>
@@ -6412,7 +6398,7 @@
       <c r="D100" s="3" t="n">
         <v>4.87</v>
       </c>
-      <c r="E100" s="3" t="inlineStr"/>
+      <c r="E100" s="3" t="n"/>
       <c r="F100" s="3">
         <f>IF(B100="common", 4, IF(B100="uncommon", 3, IF(B100="rare", 0.73878, 1)))</f>
         <v/>
@@ -6932,7 +6918,7 @@
       <c r="D109" s="3" t="n">
         <v>9.73</v>
       </c>
-      <c r="E109" s="3" t="inlineStr"/>
+      <c r="E109" s="3" t="n"/>
       <c r="F109" s="3">
         <f>IF(B109="common", 4, IF(B109="uncommon", 3, IF(B109="rare", 0.73878, 1)))</f>
         <v/>
@@ -7510,7 +7496,7 @@
       <c r="D119" s="3" t="n">
         <v>7.12</v>
       </c>
-      <c r="E119" s="3" t="inlineStr"/>
+      <c r="E119" s="3" t="n"/>
       <c r="F119" s="3">
         <f>IF(B119="common", 4, IF(B119="uncommon", 3, IF(B119="rare", 0.73878, 1)))</f>
         <v/>
@@ -7566,7 +7552,7 @@
       <c r="D120" s="3" t="n">
         <v>17.62</v>
       </c>
-      <c r="E120" s="3" t="inlineStr"/>
+      <c r="E120" s="3" t="n"/>
       <c r="F120" s="3">
         <f>IF(B120="common", 4, IF(B120="uncommon", 3, IF(B120="rare", 0.73878, 1)))</f>
         <v/>
@@ -7622,7 +7608,7 @@
       <c r="D121" s="3" t="n">
         <v>14.34</v>
       </c>
-      <c r="E121" s="3" t="inlineStr"/>
+      <c r="E121" s="3" t="n"/>
       <c r="F121" s="3">
         <f>IF(B121="common", 4, IF(B121="uncommon", 3, IF(B121="rare", 0.73878, 1)))</f>
         <v/>
@@ -7678,7 +7664,7 @@
       <c r="D122" s="3" t="n">
         <v>12.85</v>
       </c>
-      <c r="E122" s="3" t="inlineStr"/>
+      <c r="E122" s="3" t="n"/>
       <c r="F122" s="3">
         <f>IF(B122="common", 4, IF(B122="uncommon", 3, IF(B122="rare", 0.73878, 1)))</f>
         <v/>
@@ -7908,7 +7894,7 @@
       <c r="D126" s="3" t="n">
         <v>6.36</v>
       </c>
-      <c r="E126" s="3" t="inlineStr"/>
+      <c r="E126" s="3" t="n"/>
       <c r="F126" s="3">
         <f>IF(B126="common", 4, IF(B126="uncommon", 3, IF(B126="rare", 0.73878, 1)))</f>
         <v/>
@@ -8080,7 +8066,7 @@
       <c r="D129" s="3" t="n">
         <v>9.74</v>
       </c>
-      <c r="E129" s="3" t="inlineStr"/>
+      <c r="E129" s="3" t="n"/>
       <c r="F129" s="3">
         <f>IF(B129="common", 4, IF(B129="uncommon", 3, IF(B129="rare", 0.73878, 1)))</f>
         <v/>
@@ -8426,7 +8412,7 @@
       <c r="D135" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="E135" s="3" t="inlineStr"/>
+      <c r="E135" s="3" t="n"/>
       <c r="F135" s="3">
         <f>IF(B135="common", 4, IF(B135="uncommon", 3, IF(B135="rare", 0.73878, 1)))</f>
         <v/>
@@ -8482,7 +8468,7 @@
       <c r="D136" s="3" t="n">
         <v>8.49</v>
       </c>
-      <c r="E136" s="3" t="inlineStr"/>
+      <c r="E136" s="3" t="n"/>
       <c r="F136" s="3">
         <f>IF(B136="common", 4, IF(B136="uncommon", 3, IF(B136="rare", 0.73878, 1)))</f>
         <v/>
@@ -8654,7 +8640,7 @@
       <c r="D139" s="3" t="n">
         <v>6.49</v>
       </c>
-      <c r="E139" s="3" t="inlineStr"/>
+      <c r="E139" s="3" t="n"/>
       <c r="F139" s="3">
         <f>IF(B139="common", 4, IF(B139="uncommon", 3, IF(B139="rare", 0.73878, 1)))</f>
         <v/>
@@ -9232,7 +9218,7 @@
       <c r="D149" s="3" t="n">
         <v>33.66</v>
       </c>
-      <c r="E149" s="3" t="inlineStr"/>
+      <c r="E149" s="3" t="n"/>
       <c r="F149" s="3">
         <f>IF(B149="common", 4, IF(B149="uncommon", 3, IF(B149="rare", 0.73878, 1)))</f>
         <v/>
@@ -9462,7 +9448,7 @@
       <c r="D153" s="3" t="n">
         <v>20.31</v>
       </c>
-      <c r="E153" s="3" t="inlineStr"/>
+      <c r="E153" s="3" t="n"/>
       <c r="F153" s="3">
         <f>IF(B153="common", 4, IF(B153="uncommon", 3, IF(B153="rare", 0.73878, 1)))</f>
         <v/>
@@ -9866,7 +9852,7 @@
       <c r="D160" s="3" t="n">
         <v>20.5</v>
       </c>
-      <c r="E160" s="3" t="inlineStr"/>
+      <c r="E160" s="3" t="n"/>
       <c r="F160" s="3">
         <f>IF(B160="common", 4, IF(B160="uncommon", 3, IF(B160="rare", 0.73878, 1)))</f>
         <v/>
@@ -11024,7 +11010,7 @@
       <c r="D180" s="3" t="n">
         <v>44.78</v>
       </c>
-      <c r="E180" s="3" t="inlineStr"/>
+      <c r="E180" s="3" t="n"/>
       <c r="F180" s="3">
         <f>IF(B180="common", 4, IF(B180="uncommon", 3, IF(B180="rare", 0.73878, 1)))</f>
         <v/>
@@ -11196,7 +11182,7 @@
       <c r="D183" s="3" t="n">
         <v>1.78</v>
       </c>
-      <c r="E183" s="3" t="inlineStr"/>
+      <c r="E183" s="3" t="n"/>
       <c r="F183" s="3">
         <f>IF(B183="common", 4, IF(B183="uncommon", 3, IF(B183="rare", 0.73878, 1)))</f>
         <v/>
@@ -11310,7 +11296,7 @@
       <c r="D185" s="3" t="n">
         <v>6.87</v>
       </c>
-      <c r="E185" s="3" t="inlineStr"/>
+      <c r="E185" s="3" t="n"/>
       <c r="F185" s="3">
         <f>IF(B185="common", 4, IF(B185="uncommon", 3, IF(B185="rare", 0.73878, 1)))</f>
         <v/>
@@ -11714,7 +11700,7 @@
       <c r="D192" s="3" t="n">
         <v>0.71</v>
       </c>
-      <c r="E192" s="3" t="inlineStr"/>
+      <c r="E192" s="3" t="n"/>
       <c r="F192" s="3">
         <f>IF(B192="common", 4, IF(B192="uncommon", 3, IF(B192="rare", 0.73878, 1)))</f>
         <v/>
@@ -11770,7 +11756,7 @@
       <c r="D193" s="3" t="n">
         <v>8.539999999999999</v>
       </c>
-      <c r="E193" s="3" t="inlineStr"/>
+      <c r="E193" s="3" t="n"/>
       <c r="F193" s="3">
         <f>IF(B193="common", 4, IF(B193="uncommon", 3, IF(B193="rare", 0.73878, 1)))</f>
         <v/>
@@ -11826,7 +11812,7 @@
       <c r="D194" s="3" t="n">
         <v>63.4</v>
       </c>
-      <c r="E194" s="3" t="inlineStr"/>
+      <c r="E194" s="3" t="n"/>
       <c r="F194" s="3">
         <f>IF(B194="common", 4, IF(B194="uncommon", 3, IF(B194="rare", 0.73878, 1)))</f>
         <v/>
@@ -12172,7 +12158,7 @@
       <c r="D200" s="3" t="n">
         <v>26.55</v>
       </c>
-      <c r="E200" s="3" t="inlineStr"/>
+      <c r="E200" s="3" t="n"/>
       <c r="F200" s="3">
         <f>IF(B200="common", 4, IF(B200="uncommon", 3, IF(B200="rare", 0.73878, 1)))</f>
         <v/>
@@ -12402,7 +12388,7 @@
       <c r="D204" s="3" t="n">
         <v>0.87</v>
       </c>
-      <c r="E204" s="3" t="inlineStr"/>
+      <c r="E204" s="3" t="n"/>
       <c r="F204" s="3">
         <f>IF(B204="common", 4, IF(B204="uncommon", 3, IF(B204="rare", 0.73878, 1)))</f>
         <v/>
@@ -12458,7 +12444,7 @@
       <c r="D205" s="3" t="n">
         <v>5.68</v>
       </c>
-      <c r="E205" s="3" t="inlineStr"/>
+      <c r="E205" s="3" t="n"/>
       <c r="F205" s="3">
         <f>IF(B205="common", 4, IF(B205="uncommon", 3, IF(B205="rare", 0.73878, 1)))</f>
         <v/>
@@ -12514,7 +12500,7 @@
       <c r="D206" s="3" t="n">
         <v>1.04</v>
       </c>
-      <c r="E206" s="3" t="inlineStr"/>
+      <c r="E206" s="3" t="n"/>
       <c r="F206" s="3">
         <f>IF(B206="common", 4, IF(B206="uncommon", 3, IF(B206="rare", 0.73878, 1)))</f>
         <v/>
@@ -12570,7 +12556,7 @@
       <c r="D207" s="3" t="n">
         <v>8.01</v>
       </c>
-      <c r="E207" s="3" t="inlineStr"/>
+      <c r="E207" s="3" t="n"/>
       <c r="F207" s="3">
         <f>IF(B207="common", 4, IF(B207="uncommon", 3, IF(B207="rare", 0.73878, 1)))</f>
         <v/>
@@ -12626,7 +12612,7 @@
       <c r="D208" s="3" t="n">
         <v>59.23</v>
       </c>
-      <c r="E208" s="3" t="inlineStr"/>
+      <c r="E208" s="3" t="n"/>
       <c r="F208" s="3">
         <f>IF(B208="common", 4, IF(B208="uncommon", 3, IF(B208="rare", 0.73878, 1)))</f>
         <v/>
@@ -20702,7 +20688,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20712,249 +20698,772 @@
   <cols>
     <col width="13" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="13" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="13" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="inlineStr">
-        <is>
-          <t>Metric</t>
-        </is>
-      </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Summary Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
+      <c r="C1" s="10" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="inlineStr">
+      <c r="A2" s="11" t="inlineStr">
         <is>
           <t>ev_common_total</t>
         </is>
       </c>
-      <c r="B2" s="14" t="n">
+      <c r="B2" s="11" t="n">
         <v>0.3418181818181818</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="inlineStr">
+      <c r="A3" s="11" t="inlineStr">
         <is>
           <t>ev_uncommon_total</t>
         </is>
       </c>
-      <c r="B3" s="14" t="n">
+      <c r="B3" s="11" t="n">
         <v>0.2893548387096774</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="inlineStr">
+      <c r="A4" s="11" t="inlineStr">
         <is>
           <t>ev_rare_total</t>
         </is>
       </c>
-      <c r="B4" s="14" t="n">
+      <c r="B4" s="11" t="n">
         <v>0.15375</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="inlineStr">
+      <c r="A5" s="11" t="inlineStr">
         <is>
           <t>ev_reverse_total</t>
         </is>
       </c>
-      <c r="B5" s="14" t="n">
+      <c r="B5" s="11" t="n">
         <v>0.984122693194925</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="inlineStr">
+      <c r="A6" s="11" t="inlineStr">
         <is>
           <t>ev_ace_spec_total</t>
         </is>
       </c>
-      <c r="B6" s="14" t="n">
+      <c r="B6" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="inlineStr">
+      <c r="A7" s="11" t="inlineStr">
         <is>
           <t>ev_pokeball_total</t>
         </is>
       </c>
-      <c r="B7" s="14" t="n">
+      <c r="B7" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="inlineStr">
+      <c r="A8" s="11" t="inlineStr">
         <is>
           <t>ev_master_ball_total</t>
         </is>
       </c>
-      <c r="B8" s="14" t="n">
+      <c r="B8" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="inlineStr">
+      <c r="A9" s="11" t="inlineStr">
         <is>
           <t>ev_IR_total</t>
         </is>
       </c>
-      <c r="B9" s="14" t="n">
+      <c r="B9" s="11" t="n">
         <v>1.864308510638298</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="inlineStr">
+      <c r="A10" s="11" t="inlineStr">
         <is>
           <t>ev_SIR_total</t>
         </is>
       </c>
-      <c r="B10" s="14" t="n">
+      <c r="B10" s="11" t="n">
         <v>2.086711111111111</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="inlineStr">
+      <c r="A11" s="11" t="inlineStr">
         <is>
           <t>ev_double_rare_total</t>
         </is>
       </c>
-      <c r="B11" s="14" t="n">
+      <c r="B11" s="11" t="n">
         <v>0.37</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="inlineStr">
+      <c r="A12" s="11" t="inlineStr">
         <is>
           <t>ev_hyper_rare_total</t>
         </is>
       </c>
-      <c r="B12" s="14" t="n">
+      <c r="B12" s="11" t="n">
         <v>0.127987012987013</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="13" t="inlineStr">
+      <c r="A13" s="11" t="inlineStr">
         <is>
           <t>ev_ultra_rare_total</t>
         </is>
       </c>
-      <c r="B13" s="14" t="n">
+      <c r="B13" s="11" t="n">
         <v>0.5243548387096774</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="inlineStr">
+      <c r="A14" s="11" t="inlineStr">
         <is>
           <t>reverse_multiplier</t>
         </is>
       </c>
-      <c r="B14" s="13" t="n">
+      <c r="B14" s="11" t="n">
         <v>1.865808823529412</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="inlineStr">
+      <c r="A15" s="11" t="inlineStr">
         <is>
           <t>rare_multiplier</t>
         </is>
       </c>
-      <c r="B15" s="13" t="n">
+      <c r="B15" s="11" t="n">
         <v>0.8125</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="inlineStr">
+      <c r="A16" s="11" t="inlineStr">
+        <is>
+          <t>regular_pack_ev_contribution</t>
+        </is>
+      </c>
+      <c r="B16" s="11" t="n">
+        <v>6.742407187168883</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="inlineStr">
+        <is>
+          <t>god_pack_ev_contribution</t>
+        </is>
+      </c>
+      <c r="B17" s="11" t="n">
+        <v>0.09195225317693059</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>demi_god_pack_ev_contribution</t>
+        </is>
+      </c>
+      <c r="B18" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="11" t="inlineStr">
         <is>
           <t>total_manual_ev</t>
         </is>
       </c>
-      <c r="B16" s="13" t="n">
+      <c r="B19" s="11" t="n">
         <v>6.834359440345814</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="13" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="10" t="inlineStr">
+        <is>
+          <t>Results Metric</t>
+        </is>
+      </c>
+      <c r="B21" s="10" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>total_manual_ev</t>
+        </is>
+      </c>
+      <c r="B22" s="11" t="n">
+        <v>6.834359440345814</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>acutal_simulated_ev</t>
+        </is>
+      </c>
+      <c r="B23" s="11" t="n">
+        <v>6.681584127859238</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>pack_price</t>
+        </is>
+      </c>
+      <c r="B24" s="11" t="n">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>hit_probability_percentage</t>
+        </is>
+      </c>
+      <c r="B25" s="11" t="n">
+        <v>29.24574369474995</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>no_hit_probability_percentage</t>
+        </is>
+      </c>
+      <c r="B26" s="11" t="n">
+        <v>70.75425630525005</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>net_value</t>
+        </is>
+      </c>
+      <c r="B27" s="11" t="n">
+        <v>-3.868415872140763</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>opening_pack_roi</t>
+        </is>
+      </c>
+      <c r="B28" s="11" t="n">
+        <v>0.6333255097496907</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="11" t="inlineStr">
+        <is>
+          <t>opening_pack_roi_percent</t>
+        </is>
+      </c>
+      <c r="B29" s="11" t="n">
+        <v>-36.66744902503093</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="10" t="inlineStr">
+        <is>
+          <t>Simulation Metric</t>
+        </is>
+      </c>
+      <c r="B31" s="10" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Mean Value</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.681584127859238</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Standard Deviation</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>17.99495610597306</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Minimum Value</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.8700000000000001</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Maximum Value</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>288.3111730205279</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>25th</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>50th (median)</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>75th</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>90th</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>14.32</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>95th</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>29.49</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>99th</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>66.41129999999931</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="10" t="inlineStr">
+        <is>
+          <t>Top 10 Most Expensive Hits</t>
+        </is>
+      </c>
+      <c r="B44" s="10" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C44" s="10" t="inlineStr">
+        <is>
+          <t>Effective Pull Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Charizard ex - 199/165</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>211.83</v>
+      </c>
+      <c r="C45" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Blastoise ex - 200/165</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>68.63</v>
+      </c>
+      <c r="C46" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Venusaur ex - 198/165</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="C47" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Zapdos ex - 202/165</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>59.23</v>
+      </c>
+      <c r="C48" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Squirtle - 170/165</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>44.78</v>
+      </c>
+      <c r="C49" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Charmander - 168/165</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>44.02</v>
+      </c>
+      <c r="C50" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Alakazam ex - 201/165</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>41.69</v>
+      </c>
+      <c r="C51" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Pikachu - 173/165</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>33.66</v>
+      </c>
+      <c r="C52" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Bulbasaur - 166/165</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Charmeleon - 169/165</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>31.83</v>
+      </c>
+      <c r="C54" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Summary Metric</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="11" t="inlineStr">
+        <is>
+          <t>ev_common_total</t>
+        </is>
+      </c>
+      <c r="B56" s="11" t="n">
+        <v>0.3418181818181818</v>
+      </c>
+      <c r="C56" s="11" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>ev_uncommon_total</t>
+        </is>
+      </c>
+      <c r="B57" s="11" t="n">
+        <v>0.2893548387096774</v>
+      </c>
+      <c r="C57" s="11" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>ev_rare_total</t>
+        </is>
+      </c>
+      <c r="B58" s="11" t="n">
+        <v>0.15375</v>
+      </c>
+      <c r="C58" s="11" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>ev_reverse_total</t>
+        </is>
+      </c>
+      <c r="B59" s="11" t="n">
+        <v>0.984122693194925</v>
+      </c>
+      <c r="C59" s="11" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>ev_ace_spec_total</t>
+        </is>
+      </c>
+      <c r="B60" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" s="11" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>ev_pokeball_total</t>
+        </is>
+      </c>
+      <c r="B61" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" s="11" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>ev_master_ball_total</t>
+        </is>
+      </c>
+      <c r="B62" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" s="11" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>ev_IR_total</t>
+        </is>
+      </c>
+      <c r="B63" s="11" t="n">
+        <v>1.864308510638298</v>
+      </c>
+      <c r="C63" s="11" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>ev_SIR_total</t>
+        </is>
+      </c>
+      <c r="B64" s="11" t="n">
+        <v>2.086711111111111</v>
+      </c>
+      <c r="C64" s="11" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>ev_double_rare_total</t>
+        </is>
+      </c>
+      <c r="B65" s="11" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C65" s="11" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>ev_hyper_rare_total</t>
+        </is>
+      </c>
+      <c r="B66" s="11" t="n">
+        <v>0.127987012987013</v>
+      </c>
+      <c r="C66" s="11" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>ev_ultra_rare_total</t>
+        </is>
+      </c>
+      <c r="B67" s="11" t="n">
+        <v>0.5243548387096774</v>
+      </c>
+      <c r="C67" s="11" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="11" t="inlineStr">
+        <is>
+          <t>reverse_multiplier</t>
+        </is>
+      </c>
+      <c r="B68" s="11" t="n">
+        <v>1.865808823529412</v>
+      </c>
+      <c r="C68" s="11" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="11" t="inlineStr">
+        <is>
+          <t>rare_multiplier</t>
+        </is>
+      </c>
+      <c r="B69" s="11" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="C69" s="11" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="11" t="inlineStr">
         <is>
           <t>regular_pack_ev_contribution</t>
         </is>
       </c>
-      <c r="B17" s="13" t="n">
+      <c r="B70" s="11" t="n">
         <v>6.742407187168883</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="13" t="inlineStr">
+      <c r="C70" s="11" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="11" t="inlineStr">
         <is>
           <t>god_pack_ev_contribution</t>
         </is>
       </c>
-      <c r="B18" s="13" t="n">
+      <c r="B71" s="11" t="n">
         <v>0.09195225317693059</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="13" t="inlineStr">
+      <c r="C71" s="11" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="11" t="inlineStr">
         <is>
           <t>demi_god_pack_ev_contribution</t>
         </is>
       </c>
-      <c r="B19" s="13" t="n">
+      <c r="B72" s="11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="13" t="inlineStr">
-        <is>
-          <t>net_value</t>
-        </is>
-      </c>
-      <c r="B20" s="14" t="n">
-        <v>-3.817393578299122</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="13" t="inlineStr">
-        <is>
-          <t>opening_pack_roi</t>
-        </is>
-      </c>
-      <c r="B21" s="13" t="n">
-        <v>0.6381617461327848</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="13" t="inlineStr">
-        <is>
-          <t>opening_pack_roi_percent</t>
-        </is>
-      </c>
-      <c r="B22" s="13" t="n">
-        <v>-36.18382538672152</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="13" t="inlineStr">
-        <is>
-          <t>no_hit_probability_percentage</t>
-        </is>
-      </c>
-      <c r="B23" s="15" t="n">
-        <v>0.7075425630525005</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="13" t="inlineStr">
-        <is>
-          <t>hit_probability_percentage</t>
-        </is>
-      </c>
-      <c r="B24" s="15" t="n">
-        <v>0.2924574369474995</v>
-      </c>
+      <c r="C72" s="11" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="11" t="inlineStr">
+        <is>
+          <t>total_manual_ev</t>
+        </is>
+      </c>
+      <c r="B73" s="11" t="n">
+        <v>6.834359440345814</v>
+      </c>
+      <c r="C73" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
